--- a/core/produtos.xlsx
+++ b/core/produtos.xlsx
@@ -24,15 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="550">
-  <si>
-    <t>### SEM USO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="548">
   <si>
     <t>Sim</t>
-  </si>
-  <si>
-    <t>ABRACADEIRA K12 (T30R) NAT 151X3,6MM 39269090 PARA DISPLAY INJETAVEL 2020 (T)</t>
   </si>
   <si>
     <t>ALCOOL SUL ALCOOL  70° LIQ. 6X1L</t>
@@ -1991,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E546"/>
+  <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,63 +2000,63 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1" t="s">
         <v>546</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>547</v>
-      </c>
-      <c r="C1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14070</v>
+        <v>20502</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>7.2</v>
+        <v>39.54</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50380</v>
+        <v>12707</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>7.59</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20502</v>
+        <v>12708</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>39.54</v>
+        <v>7.59</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12707</v>
+        <v>12709</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2071,12 +2065,12 @@
         <v>7.59</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12708</v>
+        <v>14016</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -2085,12 +2079,12 @@
         <v>7.59</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12709</v>
+        <v>15012</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2099,12 +2093,12 @@
         <v>7.59</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>14016</v>
+        <v>13364</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2113,12 +2107,12 @@
         <v>7.59</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15012</v>
+        <v>13363</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2127,40 +2121,40 @@
         <v>7.59</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13364</v>
+        <v>12944</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>7.59</v>
+        <v>10.99</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13363</v>
+        <v>12962</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>7.59</v>
+        <v>10.99</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12944</v>
+        <v>12932</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -2169,12 +2163,12 @@
         <v>10.99</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12962</v>
+        <v>12931</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -2183,12 +2177,12 @@
         <v>10.99</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12932</v>
+        <v>12952</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -2197,12 +2191,12 @@
         <v>10.99</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12931</v>
+        <v>12954</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -2211,12 +2205,12 @@
         <v>10.99</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12952</v>
+        <v>12959</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2225,40 +2219,40 @@
         <v>10.99</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12954</v>
+        <v>13351</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>10.99</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12959</v>
+        <v>13309</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>10.99</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13351</v>
+        <v>14014</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -2267,12 +2261,12 @@
         <v>65.900000000000006</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13309</v>
+        <v>14094</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -2281,12 +2275,12 @@
         <v>65.900000000000006</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>14014</v>
+        <v>13366</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -2295,12 +2289,12 @@
         <v>65.900000000000006</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>14094</v>
+        <v>14019</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2309,12 +2303,12 @@
         <v>65.900000000000006</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>13366</v>
+        <v>13367</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2323,12 +2317,12 @@
         <v>65.900000000000006</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>14019</v>
+        <v>13382</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -2337,12 +2331,12 @@
         <v>65.900000000000006</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>13367</v>
+        <v>13368</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -2351,40 +2345,40 @@
         <v>65.900000000000006</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>13382</v>
+        <v>14088</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26">
-        <v>65.900000000000006</v>
+        <v>8.25</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13368</v>
+        <v>14076</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27">
-        <v>65.900000000000006</v>
+        <v>8.25</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>14088</v>
+        <v>15005</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -2393,12 +2387,12 @@
         <v>8.25</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>14076</v>
+        <v>14090</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -2407,40 +2401,40 @@
         <v>8.25</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>15005</v>
+        <v>14085</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>8.25</v>
+        <v>36.99</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>14090</v>
+        <v>14086</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31">
-        <v>8.25</v>
+        <v>36.99</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>14085</v>
+        <v>14084</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -2449,12 +2443,12 @@
         <v>36.99</v>
       </c>
       <c r="D32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>14086</v>
+        <v>14083</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -2463,12 +2457,12 @@
         <v>36.99</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>14084</v>
+        <v>15026</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -2477,12 +2471,12 @@
         <v>36.99</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>14083</v>
+        <v>15065</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -2491,12 +2485,12 @@
         <v>36.99</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>15026</v>
+        <v>14077</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -2505,12 +2499,12 @@
         <v>36.99</v>
       </c>
       <c r="D36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>15065</v>
+        <v>15004</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -2519,12 +2513,12 @@
         <v>36.99</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>14077</v>
+        <v>14087</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -2533,12 +2527,12 @@
         <v>36.99</v>
       </c>
       <c r="D38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>15004</v>
+        <v>14099</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
@@ -2547,12 +2541,12 @@
         <v>36.99</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>14087</v>
+        <v>14082</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -2561,40 +2555,40 @@
         <v>36.99</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>14099</v>
+        <v>15087</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>36.99</v>
+        <v>15.1</v>
       </c>
       <c r="D41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>14082</v>
+        <v>13601</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
       <c r="C42">
-        <v>36.99</v>
+        <v>15.1</v>
       </c>
       <c r="D42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>15087</v>
+        <v>13399</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -2603,12 +2597,12 @@
         <v>15.1</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13601</v>
+        <v>13395</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -2617,12 +2611,12 @@
         <v>15.1</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>13399</v>
+        <v>13600</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -2631,12 +2625,12 @@
         <v>15.1</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>13395</v>
+        <v>13398</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -2645,12 +2639,12 @@
         <v>15.1</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>13600</v>
+        <v>12715</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -2659,82 +2653,82 @@
         <v>15.1</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>13398</v>
+        <v>15001</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
       <c r="C48">
-        <v>15.1</v>
+        <v>949</v>
       </c>
       <c r="D48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>12715</v>
+        <v>50760</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
       <c r="C49">
-        <v>15.1</v>
+        <v>0.01</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>15001</v>
+        <v>13264</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
       <c r="C50">
-        <v>949</v>
+        <v>56.5</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50760</v>
+        <v>13416</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="C51">
-        <v>0.01</v>
+        <v>88.7</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>13264</v>
+        <v>13401</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
       <c r="C52">
-        <v>56.5</v>
+        <v>88.7</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>13416</v>
+        <v>13462</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
@@ -2743,12 +2737,12 @@
         <v>88.7</v>
       </c>
       <c r="D53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>13401</v>
+        <v>13292</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
@@ -2757,12 +2751,12 @@
         <v>88.7</v>
       </c>
       <c r="D54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>13462</v>
+        <v>13445</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
@@ -2771,12 +2765,12 @@
         <v>88.7</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>13292</v>
+        <v>13414</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
@@ -2785,12 +2779,12 @@
         <v>88.7</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>13445</v>
+        <v>13298</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
@@ -2799,12 +2793,12 @@
         <v>88.7</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>13414</v>
+        <v>13439</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
@@ -2813,12 +2807,12 @@
         <v>88.7</v>
       </c>
       <c r="D58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>13298</v>
+        <v>13430</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
@@ -2827,12 +2821,12 @@
         <v>88.7</v>
       </c>
       <c r="D59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>13439</v>
+        <v>13433</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
@@ -2841,12 +2835,12 @@
         <v>88.7</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>13430</v>
+        <v>13265</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
@@ -2855,12 +2849,12 @@
         <v>88.7</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>13433</v>
+        <v>13277</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
@@ -2869,40 +2863,40 @@
         <v>88.7</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>13265</v>
+        <v>13419</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
       <c r="C63">
-        <v>88.7</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="D63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>13277</v>
+        <v>13420</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
       <c r="C64">
-        <v>88.7</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>13419</v>
+        <v>13467</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
@@ -2911,12 +2905,12 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>13420</v>
+        <v>13276</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
@@ -2925,12 +2919,12 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>13467</v>
+        <v>13449</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
@@ -2939,12 +2933,12 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>13276</v>
+        <v>13421</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
@@ -2953,12 +2947,12 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>13449</v>
+        <v>13402</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
@@ -2967,12 +2961,12 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>13421</v>
+        <v>13437</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
@@ -2981,12 +2975,12 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>13402</v>
+        <v>13431</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
@@ -2995,12 +2989,12 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>13437</v>
+        <v>13261</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
@@ -3009,12 +3003,12 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>13431</v>
+        <v>13436</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
@@ -3023,12 +3017,12 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>13261</v>
+        <v>13260</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
@@ -3037,12 +3031,12 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>13436</v>
+        <v>13262</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
@@ -3051,40 +3045,40 @@
         <v>32.950000000000003</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>13260</v>
+        <v>13442</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
       <c r="C76">
-        <v>32.950000000000003</v>
+        <v>38.99</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>13262</v>
+        <v>13427</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
       <c r="C77">
-        <v>32.950000000000003</v>
+        <v>38.99</v>
       </c>
       <c r="D77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>13442</v>
+        <v>13428</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -3093,12 +3087,12 @@
         <v>38.99</v>
       </c>
       <c r="D78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>13427</v>
+        <v>13446</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
@@ -3107,12 +3101,12 @@
         <v>38.99</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>13428</v>
+        <v>13426</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
@@ -3121,12 +3115,12 @@
         <v>38.99</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>13446</v>
+        <v>13418</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
@@ -3135,12 +3129,12 @@
         <v>38.99</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>13426</v>
+        <v>13406</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
@@ -3149,12 +3143,12 @@
         <v>38.99</v>
       </c>
       <c r="D82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>13418</v>
+        <v>13468</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
@@ -3163,12 +3157,12 @@
         <v>38.99</v>
       </c>
       <c r="D83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>13406</v>
+        <v>13294</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
@@ -3177,12 +3171,12 @@
         <v>38.99</v>
       </c>
       <c r="D84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>13468</v>
+        <v>13444</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
@@ -3191,12 +3185,12 @@
         <v>38.99</v>
       </c>
       <c r="D85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>13294</v>
+        <v>13417</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
@@ -3205,12 +3199,12 @@
         <v>38.99</v>
       </c>
       <c r="D86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>13444</v>
+        <v>13432</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
@@ -3219,12 +3213,12 @@
         <v>38.99</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>13417</v>
+        <v>13405</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
@@ -3233,12 +3227,12 @@
         <v>38.99</v>
       </c>
       <c r="D88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>13432</v>
+        <v>13438</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
@@ -3247,12 +3241,12 @@
         <v>38.99</v>
       </c>
       <c r="D89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>13405</v>
+        <v>13429</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
@@ -3261,12 +3255,12 @@
         <v>38.99</v>
       </c>
       <c r="D90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>13438</v>
+        <v>13424</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
@@ -3275,12 +3269,12 @@
         <v>38.99</v>
       </c>
       <c r="D91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>13429</v>
+        <v>13435</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
@@ -3289,12 +3283,12 @@
         <v>38.99</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>13424</v>
+        <v>13296</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
@@ -3303,12 +3297,12 @@
         <v>38.99</v>
       </c>
       <c r="D93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>13435</v>
+        <v>13293</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
@@ -3317,180 +3311,180 @@
         <v>38.99</v>
       </c>
       <c r="D94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>13296</v>
+        <v>50758</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
       <c r="C95">
-        <v>38.99</v>
+        <v>0.01</v>
       </c>
       <c r="D95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>13293</v>
+        <v>11115</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
       <c r="C96">
-        <v>38.99</v>
+        <v>25.99</v>
       </c>
       <c r="D96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>50758</v>
+        <v>11116</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
       <c r="C97">
-        <v>0.01</v>
+        <v>27.99</v>
       </c>
       <c r="D97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>11115</v>
+        <v>11117</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
       <c r="C98">
-        <v>25.99</v>
+        <v>40.5</v>
       </c>
       <c r="D98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>11116</v>
+        <v>11118</v>
       </c>
       <c r="B99" t="s">
         <v>98</v>
       </c>
       <c r="C99">
-        <v>27.99</v>
+        <v>40.5</v>
       </c>
       <c r="D99" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>11117</v>
+        <v>11119</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
       <c r="C100">
-        <v>40.5</v>
+        <v>30.4</v>
       </c>
       <c r="D100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>11118</v>
+        <v>11124</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
       <c r="C101">
-        <v>40.5</v>
+        <v>11.2</v>
       </c>
       <c r="D101" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>11119</v>
+        <v>11125</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
       </c>
       <c r="C102">
-        <v>30.4</v>
+        <v>12.5</v>
       </c>
       <c r="D102" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>11124</v>
+        <v>11127</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
       </c>
       <c r="C103">
-        <v>11.2</v>
+        <v>9.99</v>
       </c>
       <c r="D103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>11125</v>
+        <v>11108</v>
       </c>
       <c r="B104" t="s">
         <v>103</v>
       </c>
       <c r="C104">
-        <v>12.5</v>
+        <v>47.65</v>
       </c>
       <c r="D104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>11127</v>
+        <v>50819</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
       <c r="C105">
-        <v>9.99</v>
+        <v>0.01</v>
       </c>
       <c r="D105" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>11108</v>
+        <v>30365</v>
       </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
       <c r="C106">
-        <v>47.65</v>
+        <v>0.01</v>
       </c>
       <c r="D106" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>50819</v>
+        <v>50751</v>
       </c>
       <c r="B107" t="s">
         <v>106</v>
@@ -3499,12 +3493,12 @@
         <v>0.01</v>
       </c>
       <c r="D107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>30365</v>
+        <v>50779</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
@@ -3513,250 +3507,250 @@
         <v>0.01</v>
       </c>
       <c r="D108" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>50751</v>
+        <v>30027</v>
       </c>
       <c r="B109" t="s">
         <v>108</v>
       </c>
       <c r="C109">
-        <v>0.01</v>
+        <v>3.59</v>
       </c>
       <c r="D109" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>50779</v>
+        <v>30170</v>
       </c>
       <c r="B110" t="s">
         <v>109</v>
       </c>
       <c r="C110">
-        <v>0.01</v>
+        <v>7.8</v>
       </c>
       <c r="D110" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>30027</v>
+        <v>30174</v>
       </c>
       <c r="B111" t="s">
         <v>110</v>
       </c>
       <c r="C111">
-        <v>3.59</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="D111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>30170</v>
+        <v>30164</v>
       </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
       <c r="C112">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="D112" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>30174</v>
+        <v>30171</v>
       </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
       <c r="C113">
-        <v>8.0500000000000007</v>
+        <v>1.5</v>
       </c>
       <c r="D113" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>30164</v>
+        <v>30167</v>
       </c>
       <c r="B114" t="s">
         <v>113</v>
       </c>
       <c r="C114">
-        <v>6.6</v>
+        <v>7.35</v>
       </c>
       <c r="D114" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>30171</v>
+        <v>30168</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
       <c r="C115">
-        <v>1.5</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="D115" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>30167</v>
+        <v>30165</v>
       </c>
       <c r="B116" t="s">
         <v>115</v>
       </c>
       <c r="C116">
-        <v>7.35</v>
+        <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>30168</v>
+        <v>30166</v>
       </c>
       <c r="B117" t="s">
         <v>116</v>
       </c>
       <c r="C117">
-        <v>4.3600000000000003</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>30165</v>
+        <v>30173</v>
       </c>
       <c r="B118" t="s">
         <v>117</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D118" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>30166</v>
+        <v>30172</v>
       </c>
       <c r="B119" t="s">
         <v>118</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>8.11</v>
       </c>
       <c r="D119" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>30173</v>
+        <v>30163</v>
       </c>
       <c r="B120" t="s">
         <v>119</v>
       </c>
       <c r="C120">
-        <v>5.0999999999999996</v>
+        <v>14.8</v>
       </c>
       <c r="D120" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>30172</v>
+        <v>30178</v>
       </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
       <c r="C121">
-        <v>8.11</v>
+        <v>7.59</v>
       </c>
       <c r="D121" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>30163</v>
+        <v>30169</v>
       </c>
       <c r="B122" t="s">
         <v>121</v>
       </c>
       <c r="C122">
-        <v>14.8</v>
+        <v>6.41</v>
       </c>
       <c r="D122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>30178</v>
+        <v>30177</v>
       </c>
       <c r="B123" t="s">
         <v>122</v>
       </c>
       <c r="C123">
-        <v>7.59</v>
+        <v>6.2</v>
       </c>
       <c r="D123" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>30169</v>
+        <v>50366</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
       </c>
       <c r="C124">
-        <v>6.41</v>
+        <v>0.01</v>
       </c>
       <c r="D124" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>30177</v>
+        <v>50766</v>
       </c>
       <c r="B125" t="s">
         <v>124</v>
       </c>
       <c r="C125">
-        <v>6.2</v>
+        <v>0.01</v>
       </c>
       <c r="D125" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>50366</v>
+        <v>50384</v>
       </c>
       <c r="B126" t="s">
         <v>125</v>
@@ -3765,12 +3759,12 @@
         <v>0.01</v>
       </c>
       <c r="D126" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>50766</v>
+        <v>39014</v>
       </c>
       <c r="B127" t="s">
         <v>126</v>
@@ -3779,12 +3773,12 @@
         <v>0.01</v>
       </c>
       <c r="D127" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>50384</v>
+        <v>5066</v>
       </c>
       <c r="B128" t="s">
         <v>127</v>
@@ -3793,12 +3787,12 @@
         <v>0.01</v>
       </c>
       <c r="D128" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>39014</v>
+        <v>5056</v>
       </c>
       <c r="B129" t="s">
         <v>128</v>
@@ -3807,12 +3801,12 @@
         <v>0.01</v>
       </c>
       <c r="D129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>5066</v>
+        <v>5057</v>
       </c>
       <c r="B130" t="s">
         <v>129</v>
@@ -3821,12 +3815,12 @@
         <v>0.01</v>
       </c>
       <c r="D130" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="B131" t="s">
         <v>130</v>
@@ -3835,12 +3829,12 @@
         <v>0.01</v>
       </c>
       <c r="D131" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>5057</v>
+        <v>5054</v>
       </c>
       <c r="B132" t="s">
         <v>131</v>
@@ -3849,12 +3843,12 @@
         <v>0.01</v>
       </c>
       <c r="D132" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5055</v>
+        <v>5064</v>
       </c>
       <c r="B133" t="s">
         <v>132</v>
@@ -3863,12 +3857,12 @@
         <v>0.01</v>
       </c>
       <c r="D133" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>5054</v>
+        <v>5065</v>
       </c>
       <c r="B134" t="s">
         <v>133</v>
@@ -3877,12 +3871,12 @@
         <v>0.01</v>
       </c>
       <c r="D134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="B135" t="s">
         <v>134</v>
@@ -3891,12 +3885,12 @@
         <v>0.01</v>
       </c>
       <c r="D135" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>5065</v>
+        <v>5062</v>
       </c>
       <c r="B136" t="s">
         <v>135</v>
@@ -3905,12 +3899,12 @@
         <v>0.01</v>
       </c>
       <c r="D136" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>5063</v>
+        <v>5060</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
@@ -3919,12 +3913,12 @@
         <v>0.01</v>
       </c>
       <c r="D137" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
@@ -3933,12 +3927,12 @@
         <v>0.01</v>
       </c>
       <c r="D138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="B139" t="s">
         <v>138</v>
@@ -3947,12 +3941,12 @@
         <v>0.01</v>
       </c>
       <c r="D139" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>5061</v>
+        <v>5058</v>
       </c>
       <c r="B140" t="s">
         <v>139</v>
@@ -3961,12 +3955,12 @@
         <v>0.01</v>
       </c>
       <c r="D140" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>5059</v>
+        <v>5052</v>
       </c>
       <c r="B141" t="s">
         <v>140</v>
@@ -3975,12 +3969,12 @@
         <v>0.01</v>
       </c>
       <c r="D141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>5058</v>
+        <v>5053</v>
       </c>
       <c r="B142" t="s">
         <v>141</v>
@@ -3989,12 +3983,12 @@
         <v>0.01</v>
       </c>
       <c r="D142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="B143" t="s">
         <v>142</v>
@@ -4003,12 +3997,12 @@
         <v>0.01</v>
       </c>
       <c r="D143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>5053</v>
+        <v>5050</v>
       </c>
       <c r="B144" t="s">
         <v>143</v>
@@ -4017,12 +4011,12 @@
         <v>0.01</v>
       </c>
       <c r="D144" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>5051</v>
+        <v>50702</v>
       </c>
       <c r="B145" t="s">
         <v>144</v>
@@ -4031,12 +4025,12 @@
         <v>0.01</v>
       </c>
       <c r="D145" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>5050</v>
+        <v>50709</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
@@ -4045,40 +4039,40 @@
         <v>0.01</v>
       </c>
       <c r="D146" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>50702</v>
+        <v>13214</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
       <c r="C147">
-        <v>0.01</v>
+        <v>6.35</v>
       </c>
       <c r="D147" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>50709</v>
+        <v>14022</v>
       </c>
       <c r="B148" t="s">
         <v>147</v>
       </c>
       <c r="C148">
-        <v>0.01</v>
+        <v>6.35</v>
       </c>
       <c r="D148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>13214</v>
+        <v>13217</v>
       </c>
       <c r="B149" t="s">
         <v>148</v>
@@ -4087,12 +4081,12 @@
         <v>6.35</v>
       </c>
       <c r="D149" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>14022</v>
+        <v>13213</v>
       </c>
       <c r="B150" t="s">
         <v>149</v>
@@ -4101,40 +4095,40 @@
         <v>6.35</v>
       </c>
       <c r="D150" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>13217</v>
+        <v>13353</v>
       </c>
       <c r="B151" t="s">
         <v>150</v>
       </c>
       <c r="C151">
-        <v>6.35</v>
+        <v>15.5</v>
       </c>
       <c r="D151" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>13213</v>
+        <v>14020</v>
       </c>
       <c r="B152" t="s">
         <v>151</v>
       </c>
       <c r="C152">
-        <v>6.35</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>13353</v>
+        <v>13354</v>
       </c>
       <c r="B153" t="s">
         <v>152</v>
@@ -4143,12 +4137,12 @@
         <v>15.5</v>
       </c>
       <c r="D153" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>14020</v>
+        <v>14095</v>
       </c>
       <c r="B154" t="s">
         <v>153</v>
@@ -4157,12 +4151,12 @@
         <v>65.900000000000006</v>
       </c>
       <c r="D154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>13354</v>
+        <v>13355</v>
       </c>
       <c r="B155" t="s">
         <v>154</v>
@@ -4171,40 +4165,40 @@
         <v>15.5</v>
       </c>
       <c r="D155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>14095</v>
+        <v>13562</v>
       </c>
       <c r="B156" t="s">
         <v>155</v>
       </c>
       <c r="C156">
-        <v>65.900000000000006</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>13355</v>
+        <v>13563</v>
       </c>
       <c r="B157" t="s">
         <v>156</v>
       </c>
       <c r="C157">
-        <v>15.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D157" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>13562</v>
+        <v>13561</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
@@ -4213,40 +4207,40 @@
         <v>40.700000000000003</v>
       </c>
       <c r="D158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>13563</v>
+        <v>13506</v>
       </c>
       <c r="B159" t="s">
         <v>158</v>
       </c>
       <c r="C159">
-        <v>40.700000000000003</v>
+        <v>35.99</v>
       </c>
       <c r="D159" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>13561</v>
+        <v>13500</v>
       </c>
       <c r="B160" t="s">
         <v>159</v>
       </c>
       <c r="C160">
-        <v>40.700000000000003</v>
+        <v>35.99</v>
       </c>
       <c r="D160" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>13506</v>
+        <v>13502</v>
       </c>
       <c r="B161" t="s">
         <v>160</v>
@@ -4255,12 +4249,12 @@
         <v>35.99</v>
       </c>
       <c r="D161" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>13500</v>
+        <v>13537</v>
       </c>
       <c r="B162" t="s">
         <v>161</v>
@@ -4269,12 +4263,12 @@
         <v>35.99</v>
       </c>
       <c r="D162" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>13502</v>
+        <v>13530</v>
       </c>
       <c r="B163" t="s">
         <v>162</v>
@@ -4283,12 +4277,12 @@
         <v>35.99</v>
       </c>
       <c r="D163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>13537</v>
+        <v>13544</v>
       </c>
       <c r="B164" t="s">
         <v>163</v>
@@ -4297,12 +4291,12 @@
         <v>35.99</v>
       </c>
       <c r="D164" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>13530</v>
+        <v>13529</v>
       </c>
       <c r="B165" t="s">
         <v>164</v>
@@ -4311,12 +4305,12 @@
         <v>35.99</v>
       </c>
       <c r="D165" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>13544</v>
+        <v>13546</v>
       </c>
       <c r="B166" t="s">
         <v>165</v>
@@ -4325,12 +4319,12 @@
         <v>35.99</v>
       </c>
       <c r="D166" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>13529</v>
+        <v>13501</v>
       </c>
       <c r="B167" t="s">
         <v>166</v>
@@ -4339,12 +4333,12 @@
         <v>35.99</v>
       </c>
       <c r="D167" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>13546</v>
+        <v>13505</v>
       </c>
       <c r="B168" t="s">
         <v>167</v>
@@ -4353,12 +4347,12 @@
         <v>35.99</v>
       </c>
       <c r="D168" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>13501</v>
+        <v>13531</v>
       </c>
       <c r="B169" t="s">
         <v>168</v>
@@ -4367,40 +4361,40 @@
         <v>35.99</v>
       </c>
       <c r="D169" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>13505</v>
+        <v>13523</v>
       </c>
       <c r="B170" t="s">
         <v>169</v>
       </c>
       <c r="C170">
-        <v>35.99</v>
+        <v>41.99</v>
       </c>
       <c r="D170" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>13531</v>
+        <v>13513</v>
       </c>
       <c r="B171" t="s">
         <v>170</v>
       </c>
       <c r="C171">
-        <v>35.99</v>
+        <v>41.99</v>
       </c>
       <c r="D171" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>13523</v>
+        <v>13520</v>
       </c>
       <c r="B172" t="s">
         <v>171</v>
@@ -4409,54 +4403,54 @@
         <v>41.99</v>
       </c>
       <c r="D172" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>13513</v>
+        <v>15033</v>
       </c>
       <c r="B173" t="s">
         <v>172</v>
       </c>
       <c r="C173">
-        <v>41.99</v>
+        <v>35.99</v>
       </c>
       <c r="D173" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>13520</v>
+        <v>13533</v>
       </c>
       <c r="B174" t="s">
         <v>173</v>
       </c>
       <c r="C174">
-        <v>41.99</v>
+        <v>34.9</v>
       </c>
       <c r="D174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>15033</v>
+        <v>13518</v>
       </c>
       <c r="B175" t="s">
         <v>174</v>
       </c>
       <c r="C175">
-        <v>35.99</v>
+        <v>34.9</v>
       </c>
       <c r="D175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>13533</v>
+        <v>13543</v>
       </c>
       <c r="B176" t="s">
         <v>175</v>
@@ -4465,12 +4459,12 @@
         <v>34.9</v>
       </c>
       <c r="D176" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>13518</v>
+        <v>13524</v>
       </c>
       <c r="B177" t="s">
         <v>176</v>
@@ -4479,40 +4473,40 @@
         <v>34.9</v>
       </c>
       <c r="D177" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>13543</v>
+        <v>13509</v>
       </c>
       <c r="B178" t="s">
         <v>177</v>
       </c>
       <c r="C178">
-        <v>34.9</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="D178" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>13524</v>
+        <v>13565</v>
       </c>
       <c r="B179" t="s">
         <v>178</v>
       </c>
       <c r="C179">
-        <v>34.9</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="D179" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>13509</v>
+        <v>13508</v>
       </c>
       <c r="B180" t="s">
         <v>179</v>
@@ -4521,12 +4515,12 @@
         <v>33.700000000000003</v>
       </c>
       <c r="D180" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>13565</v>
+        <v>13512</v>
       </c>
       <c r="B181" t="s">
         <v>180</v>
@@ -4535,12 +4529,12 @@
         <v>33.700000000000003</v>
       </c>
       <c r="D181" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>13508</v>
+        <v>13547</v>
       </c>
       <c r="B182" t="s">
         <v>181</v>
@@ -4549,12 +4543,12 @@
         <v>33.700000000000003</v>
       </c>
       <c r="D182" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>13512</v>
+        <v>13538</v>
       </c>
       <c r="B183" t="s">
         <v>182</v>
@@ -4563,12 +4557,12 @@
         <v>33.700000000000003</v>
       </c>
       <c r="D183" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>13547</v>
+        <v>13558</v>
       </c>
       <c r="B184" t="s">
         <v>183</v>
@@ -4577,12 +4571,12 @@
         <v>33.700000000000003</v>
       </c>
       <c r="D184" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>13538</v>
+        <v>13511</v>
       </c>
       <c r="B185" t="s">
         <v>184</v>
@@ -4591,138 +4585,138 @@
         <v>33.700000000000003</v>
       </c>
       <c r="D185" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>13558</v>
+        <v>10556</v>
       </c>
       <c r="B186" t="s">
         <v>185</v>
       </c>
       <c r="C186">
-        <v>33.700000000000003</v>
+        <v>61.4</v>
       </c>
       <c r="D186" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>13511</v>
+        <v>10551</v>
       </c>
       <c r="B187" t="s">
         <v>186</v>
       </c>
       <c r="C187">
-        <v>33.700000000000003</v>
+        <v>130</v>
       </c>
       <c r="D187" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>10556</v>
+        <v>10555</v>
       </c>
       <c r="B188" t="s">
         <v>187</v>
       </c>
       <c r="C188">
-        <v>61.4</v>
+        <v>130</v>
       </c>
       <c r="D188" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>10551</v>
+        <v>10550</v>
       </c>
       <c r="B189" t="s">
         <v>188</v>
       </c>
       <c r="C189">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="D189" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>10555</v>
+        <v>10710</v>
       </c>
       <c r="B190" t="s">
         <v>189</v>
       </c>
       <c r="C190">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D190" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>10550</v>
+        <v>10709</v>
       </c>
       <c r="B191" t="s">
         <v>190</v>
       </c>
       <c r="C191">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="D191" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>10710</v>
+        <v>30372</v>
       </c>
       <c r="B192" t="s">
         <v>191</v>
       </c>
-      <c r="C192">
-        <v>47</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>0.01</v>
+      </c>
+      <c r="E192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>10709</v>
+        <v>50877</v>
       </c>
       <c r="B193" t="s">
         <v>192</v>
       </c>
       <c r="C193">
-        <v>47</v>
+        <v>0.01</v>
       </c>
       <c r="D193" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>30372</v>
+        <v>50704</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
-      <c r="D194">
-        <v>0.01</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>0.01</v>
+      </c>
+      <c r="D194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>50877</v>
+        <v>50811</v>
       </c>
       <c r="B195" t="s">
         <v>194</v>
@@ -4731,12 +4725,12 @@
         <v>0.01</v>
       </c>
       <c r="D195" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>50704</v>
+        <v>50762</v>
       </c>
       <c r="B196" t="s">
         <v>195</v>
@@ -4745,12 +4739,12 @@
         <v>0.01</v>
       </c>
       <c r="D196" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>50811</v>
+        <v>50739</v>
       </c>
       <c r="B197" t="s">
         <v>196</v>
@@ -4759,82 +4753,82 @@
         <v>0.01</v>
       </c>
       <c r="D197" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>50762</v>
+        <v>19709</v>
       </c>
       <c r="B198" t="s">
         <v>197</v>
       </c>
       <c r="C198">
-        <v>0.01</v>
+        <v>27.6</v>
       </c>
       <c r="D198" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>50739</v>
+        <v>19711</v>
       </c>
       <c r="B199" t="s">
         <v>198</v>
       </c>
       <c r="C199">
-        <v>0.01</v>
+        <v>55.2</v>
       </c>
       <c r="D199" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>19709</v>
+        <v>31000</v>
       </c>
       <c r="B200" t="s">
         <v>199</v>
       </c>
       <c r="C200">
-        <v>27.6</v>
+        <v>31</v>
       </c>
       <c r="D200" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>19711</v>
+        <v>22241</v>
       </c>
       <c r="B201" t="s">
         <v>200</v>
       </c>
       <c r="C201">
-        <v>55.2</v>
+        <v>98.78</v>
       </c>
       <c r="D201" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>31000</v>
+        <v>22243</v>
       </c>
       <c r="B202" t="s">
         <v>201</v>
       </c>
       <c r="C202">
-        <v>31</v>
+        <v>98.78</v>
       </c>
       <c r="D202" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>22241</v>
+        <v>22242</v>
       </c>
       <c r="B203" t="s">
         <v>202</v>
@@ -4843,40 +4837,40 @@
         <v>98.78</v>
       </c>
       <c r="D203" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>22243</v>
+        <v>13321</v>
       </c>
       <c r="B204" t="s">
         <v>203</v>
       </c>
       <c r="C204">
-        <v>98.78</v>
+        <v>16.75</v>
       </c>
       <c r="D204" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>22242</v>
+        <v>13215</v>
       </c>
       <c r="B205" t="s">
         <v>204</v>
       </c>
       <c r="C205">
-        <v>98.78</v>
+        <v>16.75</v>
       </c>
       <c r="D205" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>13321</v>
+        <v>13362</v>
       </c>
       <c r="B206" t="s">
         <v>205</v>
@@ -4885,96 +4879,96 @@
         <v>16.75</v>
       </c>
       <c r="D206" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>13215</v>
+        <v>50808</v>
       </c>
       <c r="B207" t="s">
         <v>206</v>
       </c>
       <c r="C207">
-        <v>16.75</v>
+        <v>0.01</v>
       </c>
       <c r="D207" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>13362</v>
+        <v>50807</v>
       </c>
       <c r="B208" t="s">
         <v>207</v>
       </c>
       <c r="C208">
-        <v>16.75</v>
+        <v>0.01</v>
       </c>
       <c r="D208" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>50808</v>
+        <v>22209</v>
       </c>
       <c r="B209" t="s">
         <v>208</v>
       </c>
       <c r="C209">
-        <v>0.01</v>
+        <v>83.7</v>
       </c>
       <c r="D209" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>50807</v>
+        <v>22210</v>
       </c>
       <c r="B210" t="s">
         <v>209</v>
       </c>
       <c r="C210">
-        <v>0.01</v>
+        <v>83.7</v>
       </c>
       <c r="D210" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>22209</v>
+        <v>22213</v>
       </c>
       <c r="B211" t="s">
         <v>210</v>
       </c>
       <c r="C211">
-        <v>83.7</v>
+        <v>95.48</v>
       </c>
       <c r="D211" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>22210</v>
+        <v>22214</v>
       </c>
       <c r="B212" t="s">
         <v>211</v>
       </c>
       <c r="C212">
-        <v>83.7</v>
+        <v>95.48</v>
       </c>
       <c r="D212" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>22213</v>
+        <v>22215</v>
       </c>
       <c r="B213" t="s">
         <v>212</v>
@@ -4983,12 +4977,12 @@
         <v>95.48</v>
       </c>
       <c r="D213" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>22214</v>
+        <v>22216</v>
       </c>
       <c r="B214" t="s">
         <v>213</v>
@@ -4997,166 +4991,166 @@
         <v>95.48</v>
       </c>
       <c r="D214" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>22215</v>
+        <v>22217</v>
       </c>
       <c r="B215" t="s">
         <v>214</v>
       </c>
       <c r="C215">
-        <v>95.48</v>
+        <v>98.98</v>
       </c>
       <c r="D215" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>22216</v>
+        <v>22218</v>
       </c>
       <c r="B216" t="s">
         <v>215</v>
       </c>
       <c r="C216">
-        <v>95.48</v>
+        <v>98.98</v>
       </c>
       <c r="D216" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>22217</v>
+        <v>23035</v>
       </c>
       <c r="B217" t="s">
         <v>216</v>
       </c>
       <c r="C217">
-        <v>98.98</v>
+        <v>11.3</v>
       </c>
       <c r="D217" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>22218</v>
+        <v>23036</v>
       </c>
       <c r="B218" t="s">
         <v>217</v>
       </c>
       <c r="C218">
-        <v>98.98</v>
+        <v>8.52</v>
       </c>
       <c r="D218" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>23035</v>
+        <v>23037</v>
       </c>
       <c r="B219" t="s">
         <v>218</v>
       </c>
       <c r="C219">
-        <v>11.3</v>
+        <v>16.97</v>
       </c>
       <c r="D219" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>23036</v>
+        <v>50757</v>
       </c>
       <c r="B220" t="s">
         <v>219</v>
       </c>
       <c r="C220">
-        <v>8.52</v>
+        <v>0.01</v>
       </c>
       <c r="D220" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>23037</v>
+        <v>50619</v>
       </c>
       <c r="B221" t="s">
         <v>220</v>
       </c>
       <c r="C221">
-        <v>16.97</v>
+        <v>0.01</v>
       </c>
       <c r="D221" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>50757</v>
+        <v>50595</v>
       </c>
       <c r="B222" t="s">
         <v>221</v>
       </c>
-      <c r="C222">
-        <v>0.01</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1</v>
+      <c r="D222">
+        <v>0.01</v>
+      </c>
+      <c r="E222" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>50619</v>
+        <v>50669</v>
       </c>
       <c r="B223" t="s">
         <v>222</v>
       </c>
-      <c r="C223">
-        <v>0.01</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1</v>
+      <c r="D223">
+        <v>0.01</v>
+      </c>
+      <c r="E223" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>50595</v>
+        <v>50737</v>
       </c>
       <c r="B224" t="s">
         <v>223</v>
       </c>
-      <c r="D224">
-        <v>0.01</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>0.01</v>
+      </c>
+      <c r="D224" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>50669</v>
+        <v>50906</v>
       </c>
       <c r="B225" t="s">
         <v>224</v>
       </c>
-      <c r="D225">
-        <v>0.01</v>
-      </c>
-      <c r="E225" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>0.01</v>
+      </c>
+      <c r="D225" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>50737</v>
+        <v>50771</v>
       </c>
       <c r="B226" t="s">
         <v>225</v>
@@ -5165,12 +5159,12 @@
         <v>0.01</v>
       </c>
       <c r="D226" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>50906</v>
+        <v>50899</v>
       </c>
       <c r="B227" t="s">
         <v>226</v>
@@ -5179,12 +5173,12 @@
         <v>0.01</v>
       </c>
       <c r="D227" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>50771</v>
+        <v>50900</v>
       </c>
       <c r="B228" t="s">
         <v>227</v>
@@ -5193,12 +5187,12 @@
         <v>0.01</v>
       </c>
       <c r="D228" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>50899</v>
+        <v>50707</v>
       </c>
       <c r="B229" t="s">
         <v>228</v>
@@ -5207,12 +5201,12 @@
         <v>0.01</v>
       </c>
       <c r="D229" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>50900</v>
+        <v>50748</v>
       </c>
       <c r="B230" t="s">
         <v>229</v>
@@ -5221,12 +5215,12 @@
         <v>0.01</v>
       </c>
       <c r="D230" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>50707</v>
+        <v>50745</v>
       </c>
       <c r="B231" t="s">
         <v>230</v>
@@ -5235,12 +5229,12 @@
         <v>0.01</v>
       </c>
       <c r="D231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>50748</v>
+        <v>50901</v>
       </c>
       <c r="B232" t="s">
         <v>231</v>
@@ -5249,40 +5243,40 @@
         <v>0.01</v>
       </c>
       <c r="D232" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>50745</v>
+        <v>13259</v>
       </c>
       <c r="B233" t="s">
         <v>232</v>
       </c>
       <c r="C233">
-        <v>0.01</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D233" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>50901</v>
+        <v>13253</v>
       </c>
       <c r="B234" t="s">
         <v>233</v>
       </c>
       <c r="C234">
-        <v>0.01</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D234" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>13259</v>
+        <v>13256</v>
       </c>
       <c r="B235" t="s">
         <v>234</v>
@@ -5291,12 +5285,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D235" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>13253</v>
+        <v>13257</v>
       </c>
       <c r="B236" t="s">
         <v>235</v>
@@ -5305,12 +5299,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D236" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>13256</v>
+        <v>14027</v>
       </c>
       <c r="B237" t="s">
         <v>236</v>
@@ -5319,12 +5313,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D237" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>13257</v>
+        <v>14092</v>
       </c>
       <c r="B238" t="s">
         <v>237</v>
@@ -5333,12 +5327,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D238" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>14027</v>
+        <v>13255</v>
       </c>
       <c r="B239" t="s">
         <v>238</v>
@@ -5347,12 +5341,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D239" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>14092</v>
+        <v>13258</v>
       </c>
       <c r="B240" t="s">
         <v>239</v>
@@ -5361,12 +5355,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D240" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>13255</v>
+        <v>13359</v>
       </c>
       <c r="B241" t="s">
         <v>240</v>
@@ -5375,82 +5369,82 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D241" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>13258</v>
+        <v>19774</v>
       </c>
       <c r="B242" t="s">
         <v>241</v>
       </c>
       <c r="C242">
-        <v>10.199999999999999</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="D242" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>13359</v>
+        <v>19775</v>
       </c>
       <c r="B243" t="s">
         <v>242</v>
       </c>
       <c r="C243">
-        <v>10.199999999999999</v>
+        <v>123.7</v>
       </c>
       <c r="D243" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>19774</v>
+        <v>22219</v>
       </c>
       <c r="B244" t="s">
         <v>243</v>
       </c>
       <c r="C244">
-        <v>33.119999999999997</v>
+        <v>163.53</v>
       </c>
       <c r="D244" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>19775</v>
+        <v>50705</v>
       </c>
       <c r="B245" t="s">
         <v>244</v>
       </c>
       <c r="C245">
-        <v>123.7</v>
+        <v>0.01</v>
       </c>
       <c r="D245" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>22219</v>
+        <v>50761</v>
       </c>
       <c r="B246" t="s">
         <v>245</v>
       </c>
       <c r="C246">
-        <v>163.53</v>
+        <v>0.01</v>
       </c>
       <c r="D246" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>50705</v>
+        <v>30309</v>
       </c>
       <c r="B247" t="s">
         <v>246</v>
@@ -5459,12 +5453,12 @@
         <v>0.01</v>
       </c>
       <c r="D247" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>50761</v>
+        <v>30308</v>
       </c>
       <c r="B248" t="s">
         <v>247</v>
@@ -5473,12 +5467,12 @@
         <v>0.01</v>
       </c>
       <c r="D248" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>30309</v>
+        <v>50753</v>
       </c>
       <c r="B249" t="s">
         <v>248</v>
@@ -5487,12 +5481,12 @@
         <v>0.01</v>
       </c>
       <c r="D249" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>30308</v>
+        <v>50824</v>
       </c>
       <c r="B250" t="s">
         <v>249</v>
@@ -5501,12 +5495,12 @@
         <v>0.01</v>
       </c>
       <c r="D250" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>50753</v>
+        <v>50754</v>
       </c>
       <c r="B251" t="s">
         <v>250</v>
@@ -5515,12 +5509,12 @@
         <v>0.01</v>
       </c>
       <c r="D251" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>50824</v>
+        <v>50768</v>
       </c>
       <c r="B252" t="s">
         <v>251</v>
@@ -5529,12 +5523,12 @@
         <v>0.01</v>
       </c>
       <c r="D252" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>50754</v>
+        <v>5049</v>
       </c>
       <c r="B253" t="s">
         <v>252</v>
@@ -5543,12 +5537,12 @@
         <v>0.01</v>
       </c>
       <c r="D253" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>50768</v>
+        <v>50850</v>
       </c>
       <c r="B254" t="s">
         <v>253</v>
@@ -5557,12 +5551,12 @@
         <v>0.01</v>
       </c>
       <c r="D254" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>5049</v>
+        <v>50799</v>
       </c>
       <c r="B255" t="s">
         <v>254</v>
@@ -5571,12 +5565,12 @@
         <v>0.01</v>
       </c>
       <c r="D255" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>50850</v>
+        <v>5045</v>
       </c>
       <c r="B256" t="s">
         <v>255</v>
@@ -5585,12 +5579,12 @@
         <v>0.01</v>
       </c>
       <c r="D256" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>50799</v>
+        <v>5046</v>
       </c>
       <c r="B257" t="s">
         <v>256</v>
@@ -5599,12 +5593,12 @@
         <v>0.01</v>
       </c>
       <c r="D257" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>5045</v>
+        <v>5047</v>
       </c>
       <c r="B258" t="s">
         <v>257</v>
@@ -5613,12 +5607,12 @@
         <v>0.01</v>
       </c>
       <c r="D258" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>5046</v>
+        <v>5048</v>
       </c>
       <c r="B259" t="s">
         <v>258</v>
@@ -5627,12 +5621,12 @@
         <v>0.01</v>
       </c>
       <c r="D259" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>5047</v>
+        <v>5044</v>
       </c>
       <c r="B260" t="s">
         <v>259</v>
@@ -5641,12 +5635,12 @@
         <v>0.01</v>
       </c>
       <c r="D260" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>5048</v>
+        <v>50540</v>
       </c>
       <c r="B261" t="s">
         <v>260</v>
@@ -5655,12 +5649,12 @@
         <v>0.01</v>
       </c>
       <c r="D261" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>5044</v>
+        <v>50371</v>
       </c>
       <c r="B262" t="s">
         <v>261</v>
@@ -5669,12 +5663,12 @@
         <v>0.01</v>
       </c>
       <c r="D262" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>50540</v>
+        <v>50372</v>
       </c>
       <c r="B263" t="s">
         <v>262</v>
@@ -5683,12 +5677,12 @@
         <v>0.01</v>
       </c>
       <c r="D263" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>50371</v>
+        <v>50373</v>
       </c>
       <c r="B264" t="s">
         <v>263</v>
@@ -5697,12 +5691,12 @@
         <v>0.01</v>
       </c>
       <c r="D264" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>50372</v>
+        <v>50362</v>
       </c>
       <c r="B265" t="s">
         <v>264</v>
@@ -5711,12 +5705,12 @@
         <v>0.01</v>
       </c>
       <c r="D265" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>50373</v>
+        <v>50364</v>
       </c>
       <c r="B266" t="s">
         <v>265</v>
@@ -5725,12 +5719,12 @@
         <v>0.01</v>
       </c>
       <c r="D266" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>50362</v>
+        <v>50770</v>
       </c>
       <c r="B267" t="s">
         <v>266</v>
@@ -5739,12 +5733,12 @@
         <v>0.01</v>
       </c>
       <c r="D267" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>50364</v>
+        <v>30304</v>
       </c>
       <c r="B268" t="s">
         <v>267</v>
@@ -5753,12 +5747,12 @@
         <v>0.01</v>
       </c>
       <c r="D268" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>50770</v>
+        <v>50857</v>
       </c>
       <c r="B269" t="s">
         <v>268</v>
@@ -5767,68 +5761,68 @@
         <v>0.01</v>
       </c>
       <c r="D269" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>30304</v>
+        <v>23040</v>
       </c>
       <c r="B270" t="s">
         <v>269</v>
       </c>
       <c r="C270">
-        <v>0.01</v>
+        <v>85.96</v>
       </c>
       <c r="D270" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>50857</v>
+        <v>23039</v>
       </c>
       <c r="B271" t="s">
         <v>270</v>
       </c>
       <c r="C271">
-        <v>0.01</v>
+        <v>75.41</v>
       </c>
       <c r="D271" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>23040</v>
+        <v>14039</v>
       </c>
       <c r="B272" t="s">
         <v>271</v>
       </c>
       <c r="C272">
-        <v>85.96</v>
+        <v>33.65</v>
       </c>
       <c r="D272" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>23039</v>
+        <v>14040</v>
       </c>
       <c r="B273" t="s">
         <v>272</v>
       </c>
       <c r="C273">
-        <v>75.41</v>
+        <v>33.65</v>
       </c>
       <c r="D273" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>14039</v>
+        <v>14041</v>
       </c>
       <c r="B274" t="s">
         <v>273</v>
@@ -5837,26 +5831,26 @@
         <v>33.65</v>
       </c>
       <c r="D274" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>14040</v>
+        <v>14061</v>
       </c>
       <c r="B275" t="s">
         <v>274</v>
       </c>
       <c r="C275">
-        <v>33.65</v>
+        <v>32.4</v>
       </c>
       <c r="D275" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>14041</v>
+        <v>14042</v>
       </c>
       <c r="B276" t="s">
         <v>275</v>
@@ -5865,82 +5859,82 @@
         <v>33.65</v>
       </c>
       <c r="D276" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>14061</v>
+        <v>23042</v>
       </c>
       <c r="B277" t="s">
         <v>276</v>
       </c>
       <c r="C277">
-        <v>32.4</v>
+        <v>79.930000000000007</v>
       </c>
       <c r="D277" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>14042</v>
+        <v>23043</v>
       </c>
       <c r="B278" t="s">
         <v>277</v>
       </c>
       <c r="C278">
-        <v>33.65</v>
+        <v>79.930000000000007</v>
       </c>
       <c r="D278" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>23042</v>
+        <v>50778</v>
       </c>
       <c r="B279" t="s">
         <v>278</v>
       </c>
       <c r="C279">
-        <v>79.930000000000007</v>
+        <v>0.01</v>
       </c>
       <c r="D279" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>23043</v>
+        <v>13270</v>
       </c>
       <c r="B280" t="s">
         <v>279</v>
       </c>
       <c r="C280">
-        <v>79.930000000000007</v>
+        <v>159.99</v>
       </c>
       <c r="D280" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>50778</v>
+        <v>13451</v>
       </c>
       <c r="B281" t="s">
         <v>280</v>
       </c>
       <c r="C281">
-        <v>0.01</v>
+        <v>159.99</v>
       </c>
       <c r="D281" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>13270</v>
+        <v>13450</v>
       </c>
       <c r="B282" t="s">
         <v>281</v>
@@ -5949,12 +5943,12 @@
         <v>159.99</v>
       </c>
       <c r="D282" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>13451</v>
+        <v>13423</v>
       </c>
       <c r="B283" t="s">
         <v>282</v>
@@ -5963,12 +5957,12 @@
         <v>159.99</v>
       </c>
       <c r="D283" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>13450</v>
+        <v>13271</v>
       </c>
       <c r="B284" t="s">
         <v>283</v>
@@ -5977,68 +5971,68 @@
         <v>159.99</v>
       </c>
       <c r="D284" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>13423</v>
+        <v>12734</v>
       </c>
       <c r="B285" t="s">
         <v>284</v>
       </c>
       <c r="C285">
-        <v>159.99</v>
+        <v>20.99</v>
       </c>
       <c r="D285" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>13271</v>
+        <v>12735</v>
       </c>
       <c r="B286" t="s">
         <v>285</v>
       </c>
       <c r="C286">
-        <v>159.99</v>
+        <v>20.99</v>
       </c>
       <c r="D286" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>12734</v>
+        <v>13219</v>
       </c>
       <c r="B287" t="s">
         <v>286</v>
       </c>
       <c r="C287">
-        <v>20.99</v>
+        <v>15.1</v>
       </c>
       <c r="D287" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>12735</v>
+        <v>13227</v>
       </c>
       <c r="B288" t="s">
         <v>287</v>
       </c>
       <c r="C288">
-        <v>20.99</v>
+        <v>15.1</v>
       </c>
       <c r="D288" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>13219</v>
+        <v>13223</v>
       </c>
       <c r="B289" t="s">
         <v>288</v>
@@ -6047,12 +6041,12 @@
         <v>15.1</v>
       </c>
       <c r="D289" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>13227</v>
+        <v>13221</v>
       </c>
       <c r="B290" t="s">
         <v>289</v>
@@ -6061,12 +6055,12 @@
         <v>15.1</v>
       </c>
       <c r="D290" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>13223</v>
+        <v>13220</v>
       </c>
       <c r="B291" t="s">
         <v>290</v>
@@ -6075,12 +6069,12 @@
         <v>15.1</v>
       </c>
       <c r="D291" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>13221</v>
+        <v>13218</v>
       </c>
       <c r="B292" t="s">
         <v>291</v>
@@ -6089,12 +6083,12 @@
         <v>15.1</v>
       </c>
       <c r="D292" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>13220</v>
+        <v>13224</v>
       </c>
       <c r="B293" t="s">
         <v>292</v>
@@ -6103,12 +6097,12 @@
         <v>15.1</v>
       </c>
       <c r="D293" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>13218</v>
+        <v>13225</v>
       </c>
       <c r="B294" t="s">
         <v>293</v>
@@ -6117,12 +6111,12 @@
         <v>15.1</v>
       </c>
       <c r="D294" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>13224</v>
+        <v>13222</v>
       </c>
       <c r="B295" t="s">
         <v>294</v>
@@ -6131,236 +6125,236 @@
         <v>15.1</v>
       </c>
       <c r="D295" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>13225</v>
+        <v>30362</v>
       </c>
       <c r="B296" t="s">
         <v>295</v>
       </c>
       <c r="C296">
-        <v>15.1</v>
+        <v>0.01</v>
       </c>
       <c r="D296" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>13222</v>
+        <v>599085</v>
       </c>
       <c r="B297" t="s">
         <v>296</v>
       </c>
       <c r="C297">
-        <v>15.1</v>
+        <v>31</v>
       </c>
       <c r="D297" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>30362</v>
+        <v>11015</v>
       </c>
       <c r="B298" t="s">
         <v>297</v>
       </c>
       <c r="C298">
-        <v>0.01</v>
+        <v>54.5</v>
       </c>
       <c r="D298" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>599085</v>
+        <v>11017</v>
       </c>
       <c r="B299" t="s">
         <v>298</v>
       </c>
       <c r="C299">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D299" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>11015</v>
+        <v>80001</v>
       </c>
       <c r="B300" t="s">
         <v>299</v>
       </c>
       <c r="C300">
-        <v>54.5</v>
+        <v>72</v>
       </c>
       <c r="D300" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>11017</v>
+        <v>10560</v>
       </c>
       <c r="B301" t="s">
         <v>300</v>
       </c>
       <c r="C301">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="D301" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>80001</v>
+        <v>23034</v>
       </c>
       <c r="B302" t="s">
         <v>301</v>
       </c>
       <c r="C302">
-        <v>72</v>
+        <v>269.95999999999998</v>
       </c>
       <c r="D302" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>10560</v>
+        <v>50703</v>
       </c>
       <c r="B303" t="s">
         <v>302</v>
       </c>
       <c r="C303">
-        <v>260</v>
+        <v>0.01</v>
       </c>
       <c r="D303" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>23034</v>
+        <v>11120</v>
       </c>
       <c r="B304" t="s">
         <v>303</v>
       </c>
       <c r="C304">
-        <v>269.95999999999998</v>
+        <v>46.99</v>
       </c>
       <c r="D304" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>50703</v>
+        <v>11121</v>
       </c>
       <c r="B305" t="s">
         <v>304</v>
       </c>
       <c r="C305">
-        <v>0.01</v>
+        <v>7.99</v>
       </c>
       <c r="D305" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>11120</v>
+        <v>11122</v>
       </c>
       <c r="B306" t="s">
         <v>305</v>
       </c>
       <c r="C306">
-        <v>46.99</v>
+        <v>8.99</v>
       </c>
       <c r="D306" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>11121</v>
+        <v>11325</v>
       </c>
       <c r="B307" t="s">
         <v>306</v>
       </c>
       <c r="C307">
-        <v>7.99</v>
+        <v>9.49</v>
       </c>
       <c r="D307" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>11122</v>
+        <v>11129</v>
       </c>
       <c r="B308" t="s">
         <v>307</v>
       </c>
       <c r="C308">
-        <v>8.99</v>
+        <v>9.99</v>
       </c>
       <c r="D308" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>11325</v>
+        <v>599146</v>
       </c>
       <c r="B309" t="s">
         <v>308</v>
       </c>
       <c r="C309">
-        <v>9.49</v>
+        <v>1</v>
       </c>
       <c r="D309" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>11129</v>
+        <v>13527</v>
       </c>
       <c r="B310" t="s">
         <v>309</v>
       </c>
       <c r="C310">
-        <v>9.99</v>
+        <v>50.99</v>
       </c>
       <c r="D310" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>599146</v>
+        <v>13528</v>
       </c>
       <c r="B311" t="s">
         <v>310</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>50.99</v>
       </c>
       <c r="D311" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>13527</v>
+        <v>13534</v>
       </c>
       <c r="B312" t="s">
         <v>311</v>
@@ -6369,12 +6363,12 @@
         <v>50.99</v>
       </c>
       <c r="D312" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>13528</v>
+        <v>13548</v>
       </c>
       <c r="B313" t="s">
         <v>312</v>
@@ -6383,40 +6377,40 @@
         <v>50.99</v>
       </c>
       <c r="D313" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>13534</v>
+        <v>13542</v>
       </c>
       <c r="B314" t="s">
         <v>313</v>
       </c>
       <c r="C314">
-        <v>50.99</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="D314" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>13548</v>
+        <v>13540</v>
       </c>
       <c r="B315" t="s">
         <v>314</v>
       </c>
       <c r="C315">
-        <v>50.99</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="D315" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>13542</v>
+        <v>13541</v>
       </c>
       <c r="B316" t="s">
         <v>315</v>
@@ -6425,54 +6419,54 @@
         <v>17.440000000000001</v>
       </c>
       <c r="D316" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>13540</v>
+        <v>50626</v>
       </c>
       <c r="B317" t="s">
         <v>316</v>
       </c>
       <c r="C317">
-        <v>17.440000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="D317" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>13541</v>
+        <v>50627</v>
       </c>
       <c r="B318" t="s">
         <v>317</v>
       </c>
       <c r="C318">
-        <v>17.440000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="D318" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>50626</v>
+        <v>50155</v>
       </c>
       <c r="B319" t="s">
         <v>318</v>
       </c>
       <c r="C319">
-        <v>0.01</v>
+        <v>31</v>
       </c>
       <c r="D319" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>50627</v>
+        <v>50719</v>
       </c>
       <c r="B320" t="s">
         <v>319</v>
@@ -6481,26 +6475,26 @@
         <v>0.01</v>
       </c>
       <c r="D320" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>50155</v>
+        <v>50708</v>
       </c>
       <c r="B321" t="s">
         <v>320</v>
       </c>
       <c r="C321">
-        <v>31</v>
+        <v>0.01</v>
       </c>
       <c r="D321" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>50719</v>
+        <v>50718</v>
       </c>
       <c r="B322" t="s">
         <v>321</v>
@@ -6509,12 +6503,12 @@
         <v>0.01</v>
       </c>
       <c r="D322" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>50708</v>
+        <v>50721</v>
       </c>
       <c r="B323" t="s">
         <v>322</v>
@@ -6523,12 +6517,12 @@
         <v>0.01</v>
       </c>
       <c r="D323" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>50718</v>
+        <v>50720</v>
       </c>
       <c r="B324" t="s">
         <v>323</v>
@@ -6537,306 +6531,306 @@
         <v>0.01</v>
       </c>
       <c r="D324" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>50721</v>
+        <v>50671</v>
       </c>
       <c r="B325" t="s">
         <v>324</v>
       </c>
-      <c r="C325">
-        <v>0.01</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1</v>
+      <c r="D325">
+        <v>0.01</v>
+      </c>
+      <c r="E325" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>50720</v>
+        <v>599084</v>
       </c>
       <c r="B326" t="s">
         <v>325</v>
       </c>
       <c r="C326">
-        <v>0.01</v>
+        <v>54</v>
       </c>
       <c r="D326" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>50671</v>
+        <v>50738</v>
       </c>
       <c r="B327" t="s">
         <v>326</v>
       </c>
-      <c r="D327">
-        <v>0.01</v>
-      </c>
-      <c r="E327" t="s">
-        <v>1</v>
+      <c r="C327">
+        <v>0.01</v>
+      </c>
+      <c r="D327" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>599084</v>
+        <v>23002</v>
       </c>
       <c r="B328" t="s">
         <v>327</v>
       </c>
       <c r="C328">
-        <v>54</v>
+        <v>61.32</v>
       </c>
       <c r="D328" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>50738</v>
+        <v>23003</v>
       </c>
       <c r="B329" t="s">
         <v>328</v>
       </c>
       <c r="C329">
-        <v>0.01</v>
+        <v>31.2</v>
       </c>
       <c r="D329" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>23002</v>
+        <v>23011</v>
       </c>
       <c r="B330" t="s">
         <v>329</v>
       </c>
       <c r="C330">
-        <v>61.32</v>
+        <v>88.98</v>
       </c>
       <c r="D330" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>23003</v>
+        <v>23010</v>
       </c>
       <c r="B331" t="s">
         <v>330</v>
       </c>
       <c r="C331">
-        <v>31.2</v>
+        <v>179.47</v>
       </c>
       <c r="D331" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>23011</v>
+        <v>23012</v>
       </c>
       <c r="B332" t="s">
         <v>331</v>
       </c>
       <c r="C332">
-        <v>88.98</v>
+        <v>187.01</v>
       </c>
       <c r="D332" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>23010</v>
+        <v>23013</v>
       </c>
       <c r="B333" t="s">
         <v>332</v>
       </c>
       <c r="C333">
-        <v>179.47</v>
+        <v>143.27000000000001</v>
       </c>
       <c r="D333" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>23012</v>
+        <v>23009</v>
       </c>
       <c r="B334" t="s">
         <v>333</v>
       </c>
       <c r="C334">
-        <v>187.01</v>
+        <v>179.47</v>
       </c>
       <c r="D334" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>23013</v>
+        <v>23023</v>
       </c>
       <c r="B335" t="s">
         <v>334</v>
       </c>
       <c r="C335">
-        <v>143.27000000000001</v>
+        <v>87.47</v>
       </c>
       <c r="D335" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>23009</v>
+        <v>23022</v>
       </c>
       <c r="B336" t="s">
         <v>335</v>
       </c>
       <c r="C336">
-        <v>179.47</v>
+        <v>144.03</v>
       </c>
       <c r="D336" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>23023</v>
+        <v>23020</v>
       </c>
       <c r="B337" t="s">
         <v>336</v>
       </c>
       <c r="C337">
-        <v>87.47</v>
+        <v>95.01</v>
       </c>
       <c r="D337" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>23022</v>
+        <v>23021</v>
       </c>
       <c r="B338" t="s">
         <v>337</v>
       </c>
       <c r="C338">
-        <v>144.03</v>
+        <v>190.03</v>
       </c>
       <c r="D338" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>23020</v>
+        <v>23025</v>
       </c>
       <c r="B339" t="s">
         <v>338</v>
       </c>
       <c r="C339">
-        <v>95.01</v>
+        <v>67.87</v>
       </c>
       <c r="D339" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>23021</v>
+        <v>23024</v>
       </c>
       <c r="B340" t="s">
         <v>339</v>
       </c>
       <c r="C340">
-        <v>190.03</v>
+        <v>87.47</v>
       </c>
       <c r="D340" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>23025</v>
+        <v>23007</v>
       </c>
       <c r="B341" t="s">
         <v>340</v>
       </c>
       <c r="C341">
-        <v>67.87</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="D341" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>23024</v>
+        <v>23008</v>
       </c>
       <c r="B342" t="s">
         <v>341</v>
       </c>
       <c r="C342">
-        <v>87.47</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="D342" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>23007</v>
+        <v>23006</v>
       </c>
       <c r="B343" t="s">
         <v>342</v>
       </c>
       <c r="C343">
-        <v>64.849999999999994</v>
+        <v>146.29</v>
       </c>
       <c r="D343" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>23008</v>
+        <v>23005</v>
       </c>
       <c r="B344" t="s">
         <v>343</v>
       </c>
       <c r="C344">
-        <v>64.849999999999994</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="D344" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>23006</v>
+        <v>23004</v>
       </c>
       <c r="B345" t="s">
         <v>344</v>
       </c>
       <c r="C345">
-        <v>146.29</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="D345" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>23005</v>
+        <v>23019</v>
       </c>
       <c r="B346" t="s">
         <v>345</v>
@@ -6845,26 +6839,26 @@
         <v>129.69999999999999</v>
       </c>
       <c r="D346" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>23004</v>
+        <v>23018</v>
       </c>
       <c r="B347" t="s">
         <v>346</v>
       </c>
       <c r="C347">
-        <v>129.69999999999999</v>
+        <v>527.85</v>
       </c>
       <c r="D347" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>23019</v>
+        <v>23015</v>
       </c>
       <c r="B348" t="s">
         <v>347</v>
@@ -6873,40 +6867,40 @@
         <v>129.69999999999999</v>
       </c>
       <c r="D348" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>23018</v>
+        <v>23014</v>
       </c>
       <c r="B349" t="s">
         <v>348</v>
       </c>
       <c r="C349">
-        <v>527.85</v>
+        <v>254.88</v>
       </c>
       <c r="D349" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>23015</v>
+        <v>23017</v>
       </c>
       <c r="B350" t="s">
         <v>349</v>
       </c>
       <c r="C350">
-        <v>129.69999999999999</v>
+        <v>527.85</v>
       </c>
       <c r="D350" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>23014</v>
+        <v>23016</v>
       </c>
       <c r="B351" t="s">
         <v>350</v>
@@ -6915,40 +6909,40 @@
         <v>254.88</v>
       </c>
       <c r="D351" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>23017</v>
+        <v>14023</v>
       </c>
       <c r="B352" t="s">
         <v>351</v>
       </c>
       <c r="C352">
-        <v>527.85</v>
+        <v>29.99</v>
       </c>
       <c r="D352" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>23016</v>
+        <v>14024</v>
       </c>
       <c r="B353" t="s">
         <v>352</v>
       </c>
       <c r="C353">
-        <v>254.88</v>
+        <v>29.99</v>
       </c>
       <c r="D353" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>14023</v>
+        <v>14025</v>
       </c>
       <c r="B354" t="s">
         <v>353</v>
@@ -6957,166 +6951,166 @@
         <v>29.99</v>
       </c>
       <c r="D354" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>14024</v>
+        <v>14074</v>
       </c>
       <c r="B355" t="s">
         <v>354</v>
       </c>
       <c r="C355">
-        <v>29.99</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D355" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>14025</v>
+        <v>14038</v>
       </c>
       <c r="B356" t="s">
         <v>355</v>
       </c>
       <c r="C356">
-        <v>29.99</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D356" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>14074</v>
+        <v>50638</v>
       </c>
       <c r="B357" t="s">
         <v>356</v>
       </c>
       <c r="C357">
-        <v>65.900000000000006</v>
+        <v>0.01</v>
       </c>
       <c r="D357" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>14038</v>
+        <v>50640</v>
       </c>
       <c r="B358" t="s">
         <v>357</v>
       </c>
       <c r="C358">
-        <v>65.900000000000006</v>
+        <v>0.01</v>
       </c>
       <c r="D358" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>50638</v>
+        <v>19766</v>
       </c>
       <c r="B359" t="s">
         <v>358</v>
       </c>
       <c r="C359">
-        <v>0.01</v>
+        <v>47.83</v>
       </c>
       <c r="D359" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>50640</v>
+        <v>19765</v>
       </c>
       <c r="B360" t="s">
         <v>359</v>
       </c>
       <c r="C360">
-        <v>0.01</v>
+        <v>43.48</v>
       </c>
       <c r="D360" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>19766</v>
+        <v>30097</v>
       </c>
       <c r="B361" t="s">
         <v>360</v>
       </c>
       <c r="C361">
-        <v>47.83</v>
+        <v>13.03</v>
       </c>
       <c r="D361" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>19765</v>
+        <v>15092</v>
       </c>
       <c r="B362" t="s">
         <v>361</v>
       </c>
       <c r="C362">
-        <v>43.48</v>
+        <v>11.4</v>
       </c>
       <c r="D362" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>30097</v>
+        <v>14033</v>
       </c>
       <c r="B363" t="s">
         <v>362</v>
       </c>
       <c r="C363">
-        <v>13.03</v>
+        <v>11.4</v>
       </c>
       <c r="D363" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>15092</v>
+        <v>12830</v>
       </c>
       <c r="B364" t="s">
         <v>363</v>
       </c>
       <c r="C364">
-        <v>11.4</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D364" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>14033</v>
+        <v>12831</v>
       </c>
       <c r="B365" t="s">
         <v>364</v>
       </c>
       <c r="C365">
-        <v>11.4</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D365" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>12830</v>
+        <v>14015</v>
       </c>
       <c r="B366" t="s">
         <v>365</v>
@@ -7125,12 +7119,12 @@
         <v>17.100000000000001</v>
       </c>
       <c r="D366" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>12831</v>
+        <v>12832</v>
       </c>
       <c r="B367" t="s">
         <v>366</v>
@@ -7139,222 +7133,222 @@
         <v>17.100000000000001</v>
       </c>
       <c r="D367" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>14015</v>
+        <v>23030</v>
       </c>
       <c r="B368" t="s">
         <v>367</v>
       </c>
       <c r="C368">
-        <v>17.100000000000001</v>
+        <v>58.82</v>
       </c>
       <c r="D368" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>12832</v>
+        <v>23026</v>
       </c>
       <c r="B369" t="s">
         <v>368</v>
       </c>
       <c r="C369">
-        <v>17.100000000000001</v>
+        <v>101.05</v>
       </c>
       <c r="D369" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>23030</v>
+        <v>23029</v>
       </c>
       <c r="B370" t="s">
         <v>369</v>
       </c>
       <c r="C370">
-        <v>58.82</v>
+        <v>67.87</v>
       </c>
       <c r="D370" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>23026</v>
+        <v>23028</v>
       </c>
       <c r="B371" t="s">
         <v>370</v>
       </c>
       <c r="C371">
-        <v>101.05</v>
+        <v>58.82</v>
       </c>
       <c r="D371" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>23029</v>
+        <v>23027</v>
       </c>
       <c r="B372" t="s">
         <v>371</v>
       </c>
       <c r="C372">
-        <v>67.87</v>
+        <v>54.29</v>
       </c>
       <c r="D372" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>23028</v>
+        <v>23031</v>
       </c>
       <c r="B373" t="s">
         <v>372</v>
       </c>
       <c r="C373">
-        <v>58.82</v>
+        <v>61.08</v>
       </c>
       <c r="D373" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>23027</v>
+        <v>23032</v>
       </c>
       <c r="B374" t="s">
         <v>373</v>
       </c>
       <c r="C374">
-        <v>54.29</v>
+        <v>101.05</v>
       </c>
       <c r="D374" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>23031</v>
+        <v>23033</v>
       </c>
       <c r="B375" t="s">
         <v>374</v>
       </c>
       <c r="C375">
-        <v>61.08</v>
+        <v>101.05</v>
       </c>
       <c r="D375" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>23032</v>
+        <v>30113</v>
       </c>
       <c r="B376" t="s">
         <v>375</v>
       </c>
       <c r="C376">
-        <v>101.05</v>
+        <v>0</v>
       </c>
       <c r="D376" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>23033</v>
+        <v>30192</v>
       </c>
       <c r="B377" t="s">
         <v>376</v>
       </c>
       <c r="C377">
-        <v>101.05</v>
+        <v>0.01</v>
       </c>
       <c r="D377" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>30113</v>
+        <v>22220</v>
       </c>
       <c r="B378" t="s">
         <v>377</v>
       </c>
       <c r="C378">
-        <v>0</v>
+        <v>241.69</v>
       </c>
       <c r="D378" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>30192</v>
+        <v>11128</v>
       </c>
       <c r="B379" t="s">
         <v>378</v>
       </c>
       <c r="C379">
-        <v>0.01</v>
+        <v>8.5</v>
       </c>
       <c r="D379" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>22220</v>
+        <v>12598</v>
       </c>
       <c r="B380" t="s">
         <v>379</v>
       </c>
       <c r="C380">
-        <v>241.69</v>
+        <v>21.96</v>
       </c>
       <c r="D380" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>11128</v>
+        <v>50752</v>
       </c>
       <c r="B381" t="s">
         <v>380</v>
       </c>
       <c r="C381">
-        <v>8.5</v>
+        <v>0.01</v>
       </c>
       <c r="D381" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>12598</v>
+        <v>50756</v>
       </c>
       <c r="B382" t="s">
         <v>381</v>
       </c>
       <c r="C382">
-        <v>21.96</v>
+        <v>0.01</v>
       </c>
       <c r="D382" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>50752</v>
+        <v>50914</v>
       </c>
       <c r="B383" t="s">
         <v>382</v>
@@ -7363,12 +7357,12 @@
         <v>0.01</v>
       </c>
       <c r="D383" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>50756</v>
+        <v>50912</v>
       </c>
       <c r="B384" t="s">
         <v>383</v>
@@ -7377,12 +7371,12 @@
         <v>0.01</v>
       </c>
       <c r="D384" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>50914</v>
+        <v>50913</v>
       </c>
       <c r="B385" t="s">
         <v>384</v>
@@ -7391,12 +7385,12 @@
         <v>0.01</v>
       </c>
       <c r="D385" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>50912</v>
+        <v>50915</v>
       </c>
       <c r="B386" t="s">
         <v>385</v>
@@ -7405,12 +7399,12 @@
         <v>0.01</v>
       </c>
       <c r="D386" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>50913</v>
+        <v>50776</v>
       </c>
       <c r="B387" t="s">
         <v>386</v>
@@ -7419,12 +7413,12 @@
         <v>0.01</v>
       </c>
       <c r="D387" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>50915</v>
+        <v>50755</v>
       </c>
       <c r="B388" t="s">
         <v>387</v>
@@ -7433,12 +7427,12 @@
         <v>0.01</v>
       </c>
       <c r="D388" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>50776</v>
+        <v>50656</v>
       </c>
       <c r="B389" t="s">
         <v>388</v>
@@ -7447,68 +7441,68 @@
         <v>0.01</v>
       </c>
       <c r="D389" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>50755</v>
+        <v>13447</v>
       </c>
       <c r="B390" t="s">
         <v>389</v>
       </c>
       <c r="C390">
-        <v>0.01</v>
+        <v>57.9</v>
       </c>
       <c r="D390" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>50656</v>
+        <v>13443</v>
       </c>
       <c r="B391" t="s">
         <v>390</v>
       </c>
       <c r="C391">
-        <v>0.01</v>
+        <v>57.9</v>
       </c>
       <c r="D391" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>13447</v>
+        <v>21764</v>
       </c>
       <c r="B392" t="s">
         <v>391</v>
       </c>
       <c r="C392">
-        <v>57.9</v>
+        <v>27.93</v>
       </c>
       <c r="D392" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>13443</v>
+        <v>21765</v>
       </c>
       <c r="B393" t="s">
         <v>392</v>
       </c>
       <c r="C393">
-        <v>57.9</v>
+        <v>27.93</v>
       </c>
       <c r="D393" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>21764</v>
+        <v>21766</v>
       </c>
       <c r="B394" t="s">
         <v>393</v>
@@ -7517,12 +7511,12 @@
         <v>27.93</v>
       </c>
       <c r="D394" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>21765</v>
+        <v>21767</v>
       </c>
       <c r="B395" t="s">
         <v>394</v>
@@ -7531,12 +7525,12 @@
         <v>27.93</v>
       </c>
       <c r="D395" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>21766</v>
+        <v>21758</v>
       </c>
       <c r="B396" t="s">
         <v>395</v>
@@ -7545,12 +7539,12 @@
         <v>27.93</v>
       </c>
       <c r="D396" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>21767</v>
+        <v>21759</v>
       </c>
       <c r="B397" t="s">
         <v>396</v>
@@ -7559,12 +7553,12 @@
         <v>27.93</v>
       </c>
       <c r="D397" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>21758</v>
+        <v>21748</v>
       </c>
       <c r="B398" t="s">
         <v>397</v>
@@ -7573,12 +7567,12 @@
         <v>27.93</v>
       </c>
       <c r="D398" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>21759</v>
+        <v>21749</v>
       </c>
       <c r="B399" t="s">
         <v>398</v>
@@ -7587,12 +7581,12 @@
         <v>27.93</v>
       </c>
       <c r="D399" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>21748</v>
+        <v>21736</v>
       </c>
       <c r="B400" t="s">
         <v>399</v>
@@ -7601,12 +7595,12 @@
         <v>27.93</v>
       </c>
       <c r="D400" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>21749</v>
+        <v>21737</v>
       </c>
       <c r="B401" t="s">
         <v>400</v>
@@ -7615,12 +7609,12 @@
         <v>27.93</v>
       </c>
       <c r="D401" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>21736</v>
+        <v>21738</v>
       </c>
       <c r="B402" t="s">
         <v>401</v>
@@ -7629,12 +7623,12 @@
         <v>27.93</v>
       </c>
       <c r="D402" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>21737</v>
+        <v>21739</v>
       </c>
       <c r="B403" t="s">
         <v>402</v>
@@ -7643,12 +7637,12 @@
         <v>27.93</v>
       </c>
       <c r="D403" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>21738</v>
+        <v>21762</v>
       </c>
       <c r="B404" t="s">
         <v>403</v>
@@ -7657,12 +7651,12 @@
         <v>27.93</v>
       </c>
       <c r="D404" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>21739</v>
+        <v>21763</v>
       </c>
       <c r="B405" t="s">
         <v>404</v>
@@ -7671,12 +7665,12 @@
         <v>27.93</v>
       </c>
       <c r="D405" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>21762</v>
+        <v>21746</v>
       </c>
       <c r="B406" t="s">
         <v>405</v>
@@ -7685,12 +7679,12 @@
         <v>27.93</v>
       </c>
       <c r="D406" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>21763</v>
+        <v>21747</v>
       </c>
       <c r="B407" t="s">
         <v>406</v>
@@ -7699,12 +7693,12 @@
         <v>27.93</v>
       </c>
       <c r="D407" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>21746</v>
+        <v>21732</v>
       </c>
       <c r="B408" t="s">
         <v>407</v>
@@ -7713,12 +7707,12 @@
         <v>27.93</v>
       </c>
       <c r="D408" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>21747</v>
+        <v>21733</v>
       </c>
       <c r="B409" t="s">
         <v>408</v>
@@ -7727,12 +7721,12 @@
         <v>27.93</v>
       </c>
       <c r="D409" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>21732</v>
+        <v>21734</v>
       </c>
       <c r="B410" t="s">
         <v>409</v>
@@ -7741,12 +7735,12 @@
         <v>27.93</v>
       </c>
       <c r="D410" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>21733</v>
+        <v>21735</v>
       </c>
       <c r="B411" t="s">
         <v>410</v>
@@ -7755,40 +7749,40 @@
         <v>27.93</v>
       </c>
       <c r="D411" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>21734</v>
+        <v>21772</v>
       </c>
       <c r="B412" t="s">
         <v>411</v>
       </c>
       <c r="C412">
-        <v>27.93</v>
+        <v>33.4</v>
       </c>
       <c r="D412" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>21735</v>
+        <v>21773</v>
       </c>
       <c r="B413" t="s">
         <v>412</v>
       </c>
       <c r="C413">
-        <v>27.93</v>
+        <v>33.4</v>
       </c>
       <c r="D413" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>21772</v>
+        <v>21774</v>
       </c>
       <c r="B414" t="s">
         <v>413</v>
@@ -7797,12 +7791,12 @@
         <v>33.4</v>
       </c>
       <c r="D414" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>21773</v>
+        <v>21775</v>
       </c>
       <c r="B415" t="s">
         <v>414</v>
@@ -7811,12 +7805,12 @@
         <v>33.4</v>
       </c>
       <c r="D415" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>21774</v>
+        <v>21776</v>
       </c>
       <c r="B416" t="s">
         <v>415</v>
@@ -7825,12 +7819,12 @@
         <v>33.4</v>
       </c>
       <c r="D416" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>21775</v>
+        <v>21777</v>
       </c>
       <c r="B417" t="s">
         <v>416</v>
@@ -7839,12 +7833,12 @@
         <v>33.4</v>
       </c>
       <c r="D417" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>21776</v>
+        <v>21778</v>
       </c>
       <c r="B418" t="s">
         <v>417</v>
@@ -7853,12 +7847,12 @@
         <v>33.4</v>
       </c>
       <c r="D418" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>21777</v>
+        <v>21779</v>
       </c>
       <c r="B419" t="s">
         <v>418</v>
@@ -7867,12 +7861,12 @@
         <v>33.4</v>
       </c>
       <c r="D419" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>21778</v>
+        <v>21780</v>
       </c>
       <c r="B420" t="s">
         <v>419</v>
@@ -7881,12 +7875,12 @@
         <v>33.4</v>
       </c>
       <c r="D420" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>21779</v>
+        <v>21781</v>
       </c>
       <c r="B421" t="s">
         <v>420</v>
@@ -7895,12 +7889,12 @@
         <v>33.4</v>
       </c>
       <c r="D421" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>21780</v>
+        <v>21782</v>
       </c>
       <c r="B422" t="s">
         <v>421</v>
@@ -7909,12 +7903,12 @@
         <v>33.4</v>
       </c>
       <c r="D422" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>21781</v>
+        <v>21783</v>
       </c>
       <c r="B423" t="s">
         <v>422</v>
@@ -7923,40 +7917,40 @@
         <v>33.4</v>
       </c>
       <c r="D423" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>21782</v>
+        <v>21784</v>
       </c>
       <c r="B424" t="s">
         <v>423</v>
       </c>
       <c r="C424">
-        <v>33.4</v>
+        <v>21.6</v>
       </c>
       <c r="D424" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>21783</v>
+        <v>21785</v>
       </c>
       <c r="B425" t="s">
         <v>424</v>
       </c>
       <c r="C425">
-        <v>33.4</v>
+        <v>21.6</v>
       </c>
       <c r="D425" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>21784</v>
+        <v>21786</v>
       </c>
       <c r="B426" t="s">
         <v>425</v>
@@ -7965,12 +7959,12 @@
         <v>21.6</v>
       </c>
       <c r="D426" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>21785</v>
+        <v>21787</v>
       </c>
       <c r="B427" t="s">
         <v>426</v>
@@ -7979,12 +7973,12 @@
         <v>21.6</v>
       </c>
       <c r="D427" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>21786</v>
+        <v>21788</v>
       </c>
       <c r="B428" t="s">
         <v>427</v>
@@ -7993,12 +7987,12 @@
         <v>21.6</v>
       </c>
       <c r="D428" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>21787</v>
+        <v>21789</v>
       </c>
       <c r="B429" t="s">
         <v>428</v>
@@ -8007,12 +8001,12 @@
         <v>21.6</v>
       </c>
       <c r="D429" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>21788</v>
+        <v>21790</v>
       </c>
       <c r="B430" t="s">
         <v>429</v>
@@ -8021,12 +8015,12 @@
         <v>21.6</v>
       </c>
       <c r="D430" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>21789</v>
+        <v>21791</v>
       </c>
       <c r="B431" t="s">
         <v>430</v>
@@ -8035,12 +8029,12 @@
         <v>21.6</v>
       </c>
       <c r="D431" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>21790</v>
+        <v>21792</v>
       </c>
       <c r="B432" t="s">
         <v>431</v>
@@ -8049,12 +8043,12 @@
         <v>21.6</v>
       </c>
       <c r="D432" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>21791</v>
+        <v>21793</v>
       </c>
       <c r="B433" t="s">
         <v>432</v>
@@ -8063,12 +8057,12 @@
         <v>21.6</v>
       </c>
       <c r="D433" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>21792</v>
+        <v>21794</v>
       </c>
       <c r="B434" t="s">
         <v>433</v>
@@ -8077,12 +8071,12 @@
         <v>21.6</v>
       </c>
       <c r="D434" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>21793</v>
+        <v>21795</v>
       </c>
       <c r="B435" t="s">
         <v>434</v>
@@ -8091,40 +8085,40 @@
         <v>21.6</v>
       </c>
       <c r="D435" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>21794</v>
+        <v>21624</v>
       </c>
       <c r="B436" t="s">
         <v>435</v>
       </c>
       <c r="C436">
-        <v>21.6</v>
+        <v>29.2</v>
       </c>
       <c r="D436" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>21795</v>
+        <v>21625</v>
       </c>
       <c r="B437" t="s">
         <v>436</v>
       </c>
       <c r="C437">
-        <v>21.6</v>
+        <v>29.2</v>
       </c>
       <c r="D437" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>21624</v>
+        <v>21626</v>
       </c>
       <c r="B438" t="s">
         <v>437</v>
@@ -8133,12 +8127,12 @@
         <v>29.2</v>
       </c>
       <c r="D438" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>21625</v>
+        <v>21627</v>
       </c>
       <c r="B439" t="s">
         <v>438</v>
@@ -8147,12 +8141,12 @@
         <v>29.2</v>
       </c>
       <c r="D439" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>21626</v>
+        <v>21620</v>
       </c>
       <c r="B440" t="s">
         <v>439</v>
@@ -8161,12 +8155,12 @@
         <v>29.2</v>
       </c>
       <c r="D440" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>21627</v>
+        <v>21621</v>
       </c>
       <c r="B441" t="s">
         <v>440</v>
@@ -8175,12 +8169,12 @@
         <v>29.2</v>
       </c>
       <c r="D441" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>21620</v>
+        <v>21622</v>
       </c>
       <c r="B442" t="s">
         <v>441</v>
@@ -8189,12 +8183,12 @@
         <v>29.2</v>
       </c>
       <c r="D442" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>21621</v>
+        <v>21623</v>
       </c>
       <c r="B443" t="s">
         <v>442</v>
@@ -8203,12 +8197,12 @@
         <v>29.2</v>
       </c>
       <c r="D443" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>21622</v>
+        <v>21616</v>
       </c>
       <c r="B444" t="s">
         <v>443</v>
@@ -8217,12 +8211,12 @@
         <v>29.2</v>
       </c>
       <c r="D444" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>21623</v>
+        <v>21617</v>
       </c>
       <c r="B445" t="s">
         <v>444</v>
@@ -8231,12 +8225,12 @@
         <v>29.2</v>
       </c>
       <c r="D445" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>21616</v>
+        <v>21618</v>
       </c>
       <c r="B446" t="s">
         <v>445</v>
@@ -8245,12 +8239,12 @@
         <v>29.2</v>
       </c>
       <c r="D446" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>21617</v>
+        <v>21619</v>
       </c>
       <c r="B447" t="s">
         <v>446</v>
@@ -8259,40 +8253,40 @@
         <v>29.2</v>
       </c>
       <c r="D447" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>21618</v>
+        <v>21608</v>
       </c>
       <c r="B448" t="s">
         <v>447</v>
       </c>
       <c r="C448">
-        <v>29.2</v>
+        <v>20.75</v>
       </c>
       <c r="D448" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>21619</v>
+        <v>21609</v>
       </c>
       <c r="B449" t="s">
         <v>448</v>
       </c>
       <c r="C449">
-        <v>29.2</v>
+        <v>20.75</v>
       </c>
       <c r="D449" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>21608</v>
+        <v>21610</v>
       </c>
       <c r="B450" t="s">
         <v>449</v>
@@ -8301,12 +8295,12 @@
         <v>20.75</v>
       </c>
       <c r="D450" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>21609</v>
+        <v>21611</v>
       </c>
       <c r="B451" t="s">
         <v>450</v>
@@ -8315,12 +8309,12 @@
         <v>20.75</v>
       </c>
       <c r="D451" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>21610</v>
+        <v>21612</v>
       </c>
       <c r="B452" t="s">
         <v>451</v>
@@ -8329,12 +8323,12 @@
         <v>20.75</v>
       </c>
       <c r="D452" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>21611</v>
+        <v>21613</v>
       </c>
       <c r="B453" t="s">
         <v>452</v>
@@ -8343,12 +8337,12 @@
         <v>20.75</v>
       </c>
       <c r="D453" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>21612</v>
+        <v>21614</v>
       </c>
       <c r="B454" t="s">
         <v>453</v>
@@ -8357,12 +8351,12 @@
         <v>20.75</v>
       </c>
       <c r="D454" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>21613</v>
+        <v>21615</v>
       </c>
       <c r="B455" t="s">
         <v>454</v>
@@ -8371,12 +8365,12 @@
         <v>20.75</v>
       </c>
       <c r="D455" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>21614</v>
+        <v>21604</v>
       </c>
       <c r="B456" t="s">
         <v>455</v>
@@ -8385,12 +8379,12 @@
         <v>20.75</v>
       </c>
       <c r="D456" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>21615</v>
+        <v>21605</v>
       </c>
       <c r="B457" t="s">
         <v>456</v>
@@ -8399,12 +8393,12 @@
         <v>20.75</v>
       </c>
       <c r="D457" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>21604</v>
+        <v>21606</v>
       </c>
       <c r="B458" t="s">
         <v>457</v>
@@ -8413,12 +8407,12 @@
         <v>20.75</v>
       </c>
       <c r="D458" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>21605</v>
+        <v>21607</v>
       </c>
       <c r="B459" t="s">
         <v>458</v>
@@ -8427,12 +8421,12 @@
         <v>20.75</v>
       </c>
       <c r="D459" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>21606</v>
+        <v>21600</v>
       </c>
       <c r="B460" t="s">
         <v>459</v>
@@ -8441,12 +8435,12 @@
         <v>20.75</v>
       </c>
       <c r="D460" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>21607</v>
+        <v>21601</v>
       </c>
       <c r="B461" t="s">
         <v>460</v>
@@ -8455,12 +8449,12 @@
         <v>20.75</v>
       </c>
       <c r="D461" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>21600</v>
+        <v>21602</v>
       </c>
       <c r="B462" t="s">
         <v>461</v>
@@ -8469,12 +8463,12 @@
         <v>20.75</v>
       </c>
       <c r="D462" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>21601</v>
+        <v>21603</v>
       </c>
       <c r="B463" t="s">
         <v>462</v>
@@ -8483,40 +8477,40 @@
         <v>20.75</v>
       </c>
       <c r="D463" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>21602</v>
+        <v>21644</v>
       </c>
       <c r="B464" t="s">
         <v>463</v>
       </c>
       <c r="C464">
-        <v>20.75</v>
+        <v>22.64</v>
       </c>
       <c r="D464" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>21603</v>
+        <v>21645</v>
       </c>
       <c r="B465" t="s">
         <v>464</v>
       </c>
       <c r="C465">
-        <v>20.75</v>
+        <v>22.64</v>
       </c>
       <c r="D465" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>21644</v>
+        <v>21646</v>
       </c>
       <c r="B466" t="s">
         <v>465</v>
@@ -8525,12 +8519,12 @@
         <v>22.64</v>
       </c>
       <c r="D466" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>21645</v>
+        <v>21647</v>
       </c>
       <c r="B467" t="s">
         <v>466</v>
@@ -8539,40 +8533,40 @@
         <v>22.64</v>
       </c>
       <c r="D467" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>21646</v>
+        <v>21656</v>
       </c>
       <c r="B468" t="s">
         <v>467</v>
       </c>
       <c r="C468">
-        <v>22.64</v>
+        <v>26.24</v>
       </c>
       <c r="D468" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>21647</v>
+        <v>21657</v>
       </c>
       <c r="B469" t="s">
         <v>468</v>
       </c>
       <c r="C469">
-        <v>22.64</v>
+        <v>26.24</v>
       </c>
       <c r="D469" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>21656</v>
+        <v>21658</v>
       </c>
       <c r="B470" t="s">
         <v>469</v>
@@ -8581,12 +8575,12 @@
         <v>26.24</v>
       </c>
       <c r="D470" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>21657</v>
+        <v>21659</v>
       </c>
       <c r="B471" t="s">
         <v>470</v>
@@ -8595,12 +8589,12 @@
         <v>26.24</v>
       </c>
       <c r="D471" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>21658</v>
+        <v>21660</v>
       </c>
       <c r="B472" t="s">
         <v>471</v>
@@ -8609,12 +8603,12 @@
         <v>26.24</v>
       </c>
       <c r="D472" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>21659</v>
+        <v>21661</v>
       </c>
       <c r="B473" t="s">
         <v>472</v>
@@ -8623,12 +8617,12 @@
         <v>26.24</v>
       </c>
       <c r="D473" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>21660</v>
+        <v>21662</v>
       </c>
       <c r="B474" t="s">
         <v>473</v>
@@ -8637,12 +8631,12 @@
         <v>26.24</v>
       </c>
       <c r="D474" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>21661</v>
+        <v>21663</v>
       </c>
       <c r="B475" t="s">
         <v>474</v>
@@ -8651,12 +8645,12 @@
         <v>26.24</v>
       </c>
       <c r="D475" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>21662</v>
+        <v>21652</v>
       </c>
       <c r="B476" t="s">
         <v>475</v>
@@ -8665,12 +8659,12 @@
         <v>26.24</v>
       </c>
       <c r="D476" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>21663</v>
+        <v>21653</v>
       </c>
       <c r="B477" t="s">
         <v>476</v>
@@ -8679,12 +8673,12 @@
         <v>26.24</v>
       </c>
       <c r="D477" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>21652</v>
+        <v>21654</v>
       </c>
       <c r="B478" t="s">
         <v>477</v>
@@ -8693,12 +8687,12 @@
         <v>26.24</v>
       </c>
       <c r="D478" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>21653</v>
+        <v>21655</v>
       </c>
       <c r="B479" t="s">
         <v>478</v>
@@ -8707,40 +8701,40 @@
         <v>26.24</v>
       </c>
       <c r="D479" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>21654</v>
+        <v>21672</v>
       </c>
       <c r="B480" t="s">
         <v>479</v>
       </c>
       <c r="C480">
-        <v>26.24</v>
+        <v>25.87</v>
       </c>
       <c r="D480" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>21655</v>
+        <v>21673</v>
       </c>
       <c r="B481" t="s">
         <v>480</v>
       </c>
       <c r="C481">
-        <v>26.24</v>
+        <v>25.87</v>
       </c>
       <c r="D481" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>21672</v>
+        <v>21674</v>
       </c>
       <c r="B482" t="s">
         <v>481</v>
@@ -8749,12 +8743,12 @@
         <v>25.87</v>
       </c>
       <c r="D482" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>21673</v>
+        <v>21675</v>
       </c>
       <c r="B483" t="s">
         <v>482</v>
@@ -8763,12 +8757,12 @@
         <v>25.87</v>
       </c>
       <c r="D483" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>21674</v>
+        <v>21668</v>
       </c>
       <c r="B484" t="s">
         <v>483</v>
@@ -8777,12 +8771,12 @@
         <v>25.87</v>
       </c>
       <c r="D484" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>21675</v>
+        <v>21669</v>
       </c>
       <c r="B485" t="s">
         <v>484</v>
@@ -8791,12 +8785,12 @@
         <v>25.87</v>
       </c>
       <c r="D485" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>21668</v>
+        <v>21670</v>
       </c>
       <c r="B486" t="s">
         <v>485</v>
@@ -8805,12 +8799,12 @@
         <v>25.87</v>
       </c>
       <c r="D486" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>21669</v>
+        <v>21671</v>
       </c>
       <c r="B487" t="s">
         <v>486</v>
@@ -8819,12 +8813,12 @@
         <v>25.87</v>
       </c>
       <c r="D487" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>21670</v>
+        <v>21664</v>
       </c>
       <c r="B488" t="s">
         <v>487</v>
@@ -8833,12 +8827,12 @@
         <v>25.87</v>
       </c>
       <c r="D488" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>21671</v>
+        <v>21665</v>
       </c>
       <c r="B489" t="s">
         <v>488</v>
@@ -8847,12 +8841,12 @@
         <v>25.87</v>
       </c>
       <c r="D489" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>21664</v>
+        <v>21666</v>
       </c>
       <c r="B490" t="s">
         <v>489</v>
@@ -8861,12 +8855,12 @@
         <v>25.87</v>
       </c>
       <c r="D490" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>21665</v>
+        <v>21667</v>
       </c>
       <c r="B491" t="s">
         <v>490</v>
@@ -8875,40 +8869,40 @@
         <v>25.87</v>
       </c>
       <c r="D491" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>21666</v>
+        <v>21648</v>
       </c>
       <c r="B492" t="s">
         <v>491</v>
       </c>
       <c r="C492">
-        <v>25.87</v>
+        <v>22.64</v>
       </c>
       <c r="D492" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>21667</v>
+        <v>21649</v>
       </c>
       <c r="B493" t="s">
         <v>492</v>
       </c>
       <c r="C493">
-        <v>25.87</v>
+        <v>22.64</v>
       </c>
       <c r="D493" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>21648</v>
+        <v>21650</v>
       </c>
       <c r="B494" t="s">
         <v>493</v>
@@ -8917,12 +8911,12 @@
         <v>22.64</v>
       </c>
       <c r="D494" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>21649</v>
+        <v>21651</v>
       </c>
       <c r="B495" t="s">
         <v>494</v>
@@ -8931,12 +8925,12 @@
         <v>22.64</v>
       </c>
       <c r="D495" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>21650</v>
+        <v>21640</v>
       </c>
       <c r="B496" t="s">
         <v>495</v>
@@ -8945,12 +8939,12 @@
         <v>22.64</v>
       </c>
       <c r="D496" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>21651</v>
+        <v>21641</v>
       </c>
       <c r="B497" t="s">
         <v>496</v>
@@ -8959,12 +8953,12 @@
         <v>22.64</v>
       </c>
       <c r="D497" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>21640</v>
+        <v>21642</v>
       </c>
       <c r="B498" t="s">
         <v>497</v>
@@ -8973,12 +8967,12 @@
         <v>22.64</v>
       </c>
       <c r="D498" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>21641</v>
+        <v>21643</v>
       </c>
       <c r="B499" t="s">
         <v>498</v>
@@ -8987,222 +8981,222 @@
         <v>22.64</v>
       </c>
       <c r="D499" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>21642</v>
+        <v>50383</v>
       </c>
       <c r="B500" t="s">
         <v>499</v>
       </c>
       <c r="C500">
-        <v>22.64</v>
+        <v>0.01</v>
       </c>
       <c r="D500" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>21643</v>
+        <v>13434</v>
       </c>
       <c r="B501" t="s">
         <v>500</v>
       </c>
       <c r="C501">
-        <v>22.64</v>
+        <v>94.3</v>
       </c>
       <c r="D501" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>50383</v>
+        <v>13441</v>
       </c>
       <c r="B502" t="s">
         <v>501</v>
       </c>
       <c r="C502">
-        <v>0.01</v>
+        <v>74.5</v>
       </c>
       <c r="D502" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>13434</v>
+        <v>22245</v>
       </c>
       <c r="B503" t="s">
         <v>502</v>
       </c>
       <c r="C503">
-        <v>94.3</v>
+        <v>114</v>
       </c>
       <c r="D503" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>13441</v>
+        <v>22246</v>
       </c>
       <c r="B504" t="s">
         <v>503</v>
       </c>
       <c r="C504">
-        <v>74.5</v>
+        <v>114</v>
       </c>
       <c r="D504" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>22245</v>
+        <v>22240</v>
       </c>
       <c r="B505" t="s">
         <v>504</v>
       </c>
       <c r="C505">
-        <v>114</v>
+        <v>108.77</v>
       </c>
       <c r="D505" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>22246</v>
+        <v>50390</v>
       </c>
       <c r="B506" t="s">
         <v>505</v>
       </c>
       <c r="C506">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D506" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>22240</v>
+        <v>19724</v>
       </c>
       <c r="B507" t="s">
         <v>506</v>
       </c>
       <c r="C507">
-        <v>108.77</v>
+        <v>199.9</v>
       </c>
       <c r="D507" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>50390</v>
+        <v>19725</v>
       </c>
       <c r="B508" t="s">
         <v>507</v>
       </c>
       <c r="C508">
-        <v>0</v>
+        <v>91.9</v>
       </c>
       <c r="D508" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>19724</v>
+        <v>19735</v>
       </c>
       <c r="B509" t="s">
         <v>508</v>
       </c>
       <c r="C509">
-        <v>199.9</v>
+        <v>264.89999999999998</v>
       </c>
       <c r="D509" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>19725</v>
+        <v>19723</v>
       </c>
       <c r="B510" t="s">
         <v>509</v>
       </c>
       <c r="C510">
-        <v>91.9</v>
+        <v>199.9</v>
       </c>
       <c r="D510" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>19735</v>
+        <v>19730</v>
       </c>
       <c r="B511" t="s">
         <v>510</v>
       </c>
       <c r="C511">
-        <v>264.89999999999998</v>
+        <v>84.5</v>
       </c>
       <c r="D511" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>19723</v>
+        <v>19734</v>
       </c>
       <c r="B512" t="s">
         <v>511</v>
       </c>
       <c r="C512">
-        <v>199.9</v>
+        <v>159.9</v>
       </c>
       <c r="D512" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>19730</v>
+        <v>50817</v>
       </c>
       <c r="B513" t="s">
         <v>512</v>
       </c>
       <c r="C513">
-        <v>84.5</v>
+        <v>0.01</v>
       </c>
       <c r="D513" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>19734</v>
+        <v>50815</v>
       </c>
       <c r="B514" t="s">
         <v>513</v>
       </c>
       <c r="C514">
-        <v>159.9</v>
+        <v>0.01</v>
       </c>
       <c r="D514" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>50817</v>
+        <v>50813</v>
       </c>
       <c r="B515" t="s">
         <v>514</v>
@@ -9211,12 +9205,12 @@
         <v>0.01</v>
       </c>
       <c r="D515" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>50815</v>
+        <v>50814</v>
       </c>
       <c r="B516" t="s">
         <v>515</v>
@@ -9225,12 +9219,12 @@
         <v>0.01</v>
       </c>
       <c r="D516" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>50813</v>
+        <v>50816</v>
       </c>
       <c r="B517" t="s">
         <v>516</v>
@@ -9239,12 +9233,12 @@
         <v>0.01</v>
       </c>
       <c r="D517" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>50814</v>
+        <v>30255</v>
       </c>
       <c r="B518" t="s">
         <v>517</v>
@@ -9253,12 +9247,12 @@
         <v>0.01</v>
       </c>
       <c r="D518" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>50816</v>
+        <v>50620</v>
       </c>
       <c r="B519" t="s">
         <v>518</v>
@@ -9267,54 +9261,54 @@
         <v>0.01</v>
       </c>
       <c r="D519" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>30255</v>
+        <v>23038</v>
       </c>
       <c r="B520" t="s">
         <v>519</v>
       </c>
       <c r="C520">
-        <v>0.01</v>
+        <v>242.81</v>
       </c>
       <c r="D520" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>50620</v>
+        <v>13375</v>
       </c>
       <c r="B521" t="s">
         <v>520</v>
       </c>
       <c r="C521">
-        <v>0.01</v>
+        <v>24.99</v>
       </c>
       <c r="D521" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>23038</v>
+        <v>13376</v>
       </c>
       <c r="B522" t="s">
         <v>521</v>
       </c>
       <c r="C522">
-        <v>242.81</v>
+        <v>24.99</v>
       </c>
       <c r="D522" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>13375</v>
+        <v>13377</v>
       </c>
       <c r="B523" t="s">
         <v>522</v>
@@ -9323,12 +9317,12 @@
         <v>24.99</v>
       </c>
       <c r="D523" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>13376</v>
+        <v>13378</v>
       </c>
       <c r="B524" t="s">
         <v>523</v>
@@ -9337,40 +9331,40 @@
         <v>24.99</v>
       </c>
       <c r="D524" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>13377</v>
+        <v>13374</v>
       </c>
       <c r="B525" t="s">
         <v>524</v>
       </c>
       <c r="C525">
-        <v>24.99</v>
+        <v>10.99</v>
       </c>
       <c r="D525" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>13378</v>
+        <v>14012</v>
       </c>
       <c r="B526" t="s">
         <v>525</v>
       </c>
       <c r="C526">
-        <v>24.99</v>
+        <v>10.99</v>
       </c>
       <c r="D526" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>13374</v>
+        <v>13370</v>
       </c>
       <c r="B527" t="s">
         <v>526</v>
@@ -9379,12 +9373,12 @@
         <v>10.99</v>
       </c>
       <c r="D527" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>14012</v>
+        <v>13605</v>
       </c>
       <c r="B528" t="s">
         <v>527</v>
@@ -9393,12 +9387,12 @@
         <v>10.99</v>
       </c>
       <c r="D528" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>13370</v>
+        <v>13371</v>
       </c>
       <c r="B529" t="s">
         <v>528</v>
@@ -9407,12 +9401,12 @@
         <v>10.99</v>
       </c>
       <c r="D529" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>13605</v>
+        <v>13604</v>
       </c>
       <c r="B530" t="s">
         <v>529</v>
@@ -9421,12 +9415,12 @@
         <v>10.99</v>
       </c>
       <c r="D530" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>13371</v>
+        <v>13602</v>
       </c>
       <c r="B531" t="s">
         <v>530</v>
@@ -9435,12 +9429,12 @@
         <v>10.99</v>
       </c>
       <c r="D531" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>13604</v>
+        <v>13388</v>
       </c>
       <c r="B532" t="s">
         <v>531</v>
@@ -9449,12 +9443,12 @@
         <v>10.99</v>
       </c>
       <c r="D532" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>13602</v>
+        <v>14013</v>
       </c>
       <c r="B533" t="s">
         <v>532</v>
@@ -9463,68 +9457,68 @@
         <v>10.99</v>
       </c>
       <c r="D533" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>13388</v>
+        <v>13312</v>
       </c>
       <c r="B534" t="s">
         <v>533</v>
       </c>
       <c r="C534">
-        <v>10.99</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D534" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>14013</v>
+        <v>13313</v>
       </c>
       <c r="B535" t="s">
         <v>534</v>
       </c>
       <c r="C535">
-        <v>10.99</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="D535" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>13312</v>
+        <v>13344</v>
       </c>
       <c r="B536" t="s">
         <v>535</v>
       </c>
       <c r="C536">
-        <v>65.900000000000006</v>
+        <v>38.99</v>
       </c>
       <c r="D536" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>13313</v>
+        <v>13345</v>
       </c>
       <c r="B537" t="s">
         <v>536</v>
       </c>
       <c r="C537">
-        <v>65.900000000000006</v>
+        <v>38.99</v>
       </c>
       <c r="D537" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>13344</v>
+        <v>13350</v>
       </c>
       <c r="B538" t="s">
         <v>537</v>
@@ -9533,12 +9527,12 @@
         <v>38.99</v>
       </c>
       <c r="D538" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>13345</v>
+        <v>13346</v>
       </c>
       <c r="B539" t="s">
         <v>538</v>
@@ -9547,105 +9541,77 @@
         <v>38.99</v>
       </c>
       <c r="D539" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>13350</v>
+        <v>50818</v>
       </c>
       <c r="B540" t="s">
         <v>539</v>
       </c>
       <c r="C540">
-        <v>38.99</v>
+        <v>0.01</v>
       </c>
       <c r="D540" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>13346</v>
+        <v>599181</v>
       </c>
       <c r="B541" t="s">
         <v>540</v>
       </c>
       <c r="C541">
-        <v>38.99</v>
+        <v>0</v>
       </c>
       <c r="D541" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>50818</v>
+        <v>13266</v>
       </c>
       <c r="B542" t="s">
         <v>541</v>
       </c>
       <c r="C542">
-        <v>0.01</v>
+        <v>137.9</v>
       </c>
       <c r="D542" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>599181</v>
+        <v>50800</v>
       </c>
       <c r="B543" t="s">
         <v>542</v>
       </c>
       <c r="C543">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D543" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>13266</v>
+        <v>50777</v>
       </c>
       <c r="B544" t="s">
         <v>543</v>
       </c>
       <c r="C544">
-        <v>137.9</v>
+        <v>0.01</v>
       </c>
       <c r="D544" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A545">
-        <v>50800</v>
-      </c>
-      <c r="B545" t="s">
-        <v>544</v>
-      </c>
-      <c r="C545">
-        <v>0.01</v>
-      </c>
-      <c r="D545" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A546">
-        <v>50777</v>
-      </c>
-      <c r="B546" t="s">
-        <v>545</v>
-      </c>
-      <c r="C546">
-        <v>0.01</v>
-      </c>
-      <c r="D546" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
